--- a/maps/TX/TX20C_candidates.xlsx
+++ b/maps/TX/TX20C_candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802E037-9D20-2848-980F-6C69C474FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D90CD0-5F7A-C841-AAA0-4B7D6769056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$101</definedName>
-    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$101</definedName>
+    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$93</definedName>
+    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/TX/TX20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="201">
   <si>
     <t>#</t>
   </si>
@@ -126,307 +126,559 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>NC20C_I079K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I050K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I083K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I094K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I064K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I017K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I071K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I089K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I073K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I063K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I037K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I005K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I001K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I088K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I081K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I023K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I093K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I058K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I014K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I044K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I054K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I040K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I009K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I048K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I002K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I042K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I029K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I066K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I031K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I016K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I078K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I032K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I036K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I006K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I065K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I074K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I096K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I055K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I025K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I068K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I007K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I098K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I080K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I046K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I038K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I034K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I092K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I000K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I043K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I011K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I057K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I051K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I028K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I047K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I067K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I090K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I062K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I033K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I013K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I095K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I022K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I035K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I056K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I026K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I012K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I024K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I076K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I045K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I041K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I061K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I082K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I019K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I003K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I018K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I097K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I087K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I084K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I008K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I010K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I015K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I091K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I053K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I039K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I099K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I069K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I077K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I027K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I059K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I030K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I020K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I072K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I086K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I075K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I085K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I060K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I049K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I021K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I052K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I004K01N14</t>
-  </si>
-  <si>
-    <t>NC20C_I070K01N14</t>
-  </si>
-  <si>
     <t>POPDEV</t>
+  </si>
+  <si>
+    <t>TX20C_I054K01N38</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>TX20C_I017K01N38</t>
+  </si>
+  <si>
+    <t>0.602231</t>
+  </si>
+  <si>
+    <t>TX20C_I060K01N38</t>
+  </si>
+  <si>
+    <t>0.647460</t>
+  </si>
+  <si>
+    <t>TX20C_I041K01N38</t>
+  </si>
+  <si>
+    <t>0.418593</t>
+  </si>
+  <si>
+    <t>TX20C_I008K01N38</t>
+  </si>
+  <si>
+    <t>0.591246</t>
+  </si>
+  <si>
+    <t>TX20C_I021K01N38</t>
+  </si>
+  <si>
+    <t>0.503491</t>
+  </si>
+  <si>
+    <t>TX20C_I057K01N38</t>
+  </si>
+  <si>
+    <t>0.738912</t>
+  </si>
+  <si>
+    <t>TX20C_I082K01N38</t>
+  </si>
+  <si>
+    <t>0.670554</t>
+  </si>
+  <si>
+    <t>TX20C_I070K01N38</t>
+  </si>
+  <si>
+    <t>0.581469</t>
+  </si>
+  <si>
+    <t>TX20C_I058K01N38</t>
+  </si>
+  <si>
+    <t>0.774228</t>
+  </si>
+  <si>
+    <t>TX20C_I032K01N38</t>
+  </si>
+  <si>
+    <t>0.650279</t>
+  </si>
+  <si>
+    <t>TX20C_I050K01N38</t>
+  </si>
+  <si>
+    <t>0.630003</t>
+  </si>
+  <si>
+    <t>TX20C_I004K01N38</t>
+  </si>
+  <si>
+    <t>0.518730</t>
+  </si>
+  <si>
+    <t>TX20C_I097K01N38</t>
+  </si>
+  <si>
+    <t>0.647220</t>
+  </si>
+  <si>
+    <t>TX20C_I039K01N38</t>
+  </si>
+  <si>
+    <t>0.651495</t>
+  </si>
+  <si>
+    <t>TX20C_I092K01N38</t>
+  </si>
+  <si>
+    <t>0.448767</t>
+  </si>
+  <si>
+    <t>TX20C_I020K01N38</t>
+  </si>
+  <si>
+    <t>0.461491</t>
+  </si>
+  <si>
+    <t>TX20C_I007K01N38</t>
+  </si>
+  <si>
+    <t>0.637265</t>
+  </si>
+  <si>
+    <t>TX20C_I000K01N38</t>
+  </si>
+  <si>
+    <t>0.535407</t>
+  </si>
+  <si>
+    <t>TX20C_I065K01N38</t>
+  </si>
+  <si>
+    <t>0.578934</t>
+  </si>
+  <si>
+    <t>TX20C_I090K01N38</t>
+  </si>
+  <si>
+    <t>0.781498</t>
+  </si>
+  <si>
+    <t>TX20C_I037K01N38</t>
+  </si>
+  <si>
+    <t>0.630276</t>
+  </si>
+  <si>
+    <t>TX20C_I030K01N38</t>
+  </si>
+  <si>
+    <t>0.685583</t>
+  </si>
+  <si>
+    <t>TX20C_I074K01N38</t>
+  </si>
+  <si>
+    <t>0.687840</t>
+  </si>
+  <si>
+    <t>TX20C_I022K01N38</t>
+  </si>
+  <si>
+    <t>0.709509</t>
+  </si>
+  <si>
+    <t>TX20C_I053K01N38</t>
+  </si>
+  <si>
+    <t>0.592979</t>
+  </si>
+  <si>
+    <t>TX20C_I086K01N38</t>
+  </si>
+  <si>
+    <t>0.788032</t>
+  </si>
+  <si>
+    <t>TX20C_I023K01N38</t>
+  </si>
+  <si>
+    <t>0.683583</t>
+  </si>
+  <si>
+    <t>TX20C_I088K01N38</t>
+  </si>
+  <si>
+    <t>0.776025</t>
+  </si>
+  <si>
+    <t>TX20C_I046K01N38</t>
+  </si>
+  <si>
+    <t>0.845929</t>
+  </si>
+  <si>
+    <t>TX20C_I012K01N38</t>
+  </si>
+  <si>
+    <t>0.741295</t>
+  </si>
+  <si>
+    <t>TX20C_I094K01N38</t>
+  </si>
+  <si>
+    <t>0.714540</t>
+  </si>
+  <si>
+    <t>TX20C_I067K01N38</t>
+  </si>
+  <si>
+    <t>0.598605</t>
+  </si>
+  <si>
+    <t>TX20C_I072K01N38</t>
+  </si>
+  <si>
+    <t>0.762776</t>
+  </si>
+  <si>
+    <t>TX20C_I043K01N38</t>
+  </si>
+  <si>
+    <t>0.614515</t>
+  </si>
+  <si>
+    <t>TX20C_I091K01N38</t>
+  </si>
+  <si>
+    <t>0.682681</t>
+  </si>
+  <si>
+    <t>TX20C_I044K01N38</t>
+  </si>
+  <si>
+    <t>0.614467</t>
+  </si>
+  <si>
+    <t>TX20C_I013K01N38</t>
+  </si>
+  <si>
+    <t>0.721246</t>
+  </si>
+  <si>
+    <t>TX20C_I005K01N38</t>
+  </si>
+  <si>
+    <t>0.656590</t>
+  </si>
+  <si>
+    <t>TX20C_I036K01N38</t>
+  </si>
+  <si>
+    <t>0.786590</t>
+  </si>
+  <si>
+    <t>TX20C_I010K01N38</t>
+  </si>
+  <si>
+    <t>0.618770</t>
+  </si>
+  <si>
+    <t>TX20C_I027K01N38</t>
+  </si>
+  <si>
+    <t>0.537803</t>
+  </si>
+  <si>
+    <t>TX20C_I001K01N38</t>
+  </si>
+  <si>
+    <t>0.858581</t>
+  </si>
+  <si>
+    <t>TX20C_I026K01N38</t>
+  </si>
+  <si>
+    <t>0.757043</t>
+  </si>
+  <si>
+    <t>TX20C_I063K01N38</t>
+  </si>
+  <si>
+    <t>0.771942</t>
+  </si>
+  <si>
+    <t>TX20C_I083K01N38</t>
+  </si>
+  <si>
+    <t>0.738596</t>
+  </si>
+  <si>
+    <t>TX20C_I049K01N38</t>
+  </si>
+  <si>
+    <t>0.707961</t>
+  </si>
+  <si>
+    <t>TX20C_I019K01N38</t>
+  </si>
+  <si>
+    <t>0.706130</t>
+  </si>
+  <si>
+    <t>TX20C_I029K01N38</t>
+  </si>
+  <si>
+    <t>0.753614</t>
+  </si>
+  <si>
+    <t>TX20C_I031K01N38</t>
+  </si>
+  <si>
+    <t>0.789394</t>
+  </si>
+  <si>
+    <t>TX20C_I052K01N38</t>
+  </si>
+  <si>
+    <t>0.846221</t>
+  </si>
+  <si>
+    <t>TX20C_I055K01N38</t>
+  </si>
+  <si>
+    <t>0.678085</t>
+  </si>
+  <si>
+    <t>TX20C_I025K01N38</t>
+  </si>
+  <si>
+    <t>0.792287</t>
+  </si>
+  <si>
+    <t>TX20C_I009K01N38</t>
+  </si>
+  <si>
+    <t>0.910700</t>
+  </si>
+  <si>
+    <t>TX20C_I015K01N38</t>
+  </si>
+  <si>
+    <t>0.818516</t>
+  </si>
+  <si>
+    <t>TX20C_I071K01N38</t>
+  </si>
+  <si>
+    <t>0.749886</t>
+  </si>
+  <si>
+    <t>TX20C_I099K01N38</t>
+  </si>
+  <si>
+    <t>0.753947</t>
+  </si>
+  <si>
+    <t>TX20C_I093K01N38</t>
+  </si>
+  <si>
+    <t>0.934438</t>
+  </si>
+  <si>
+    <t>TX20C_I002K01N38</t>
+  </si>
+  <si>
+    <t>0.893161</t>
+  </si>
+  <si>
+    <t>TX20C_I042K01N38</t>
+  </si>
+  <si>
+    <t>0.765556</t>
+  </si>
+  <si>
+    <t>TX20C_I089K01N38</t>
+  </si>
+  <si>
+    <t>0.757959</t>
+  </si>
+  <si>
+    <t>TX20C_I061K01N38</t>
+  </si>
+  <si>
+    <t>0.756767</t>
+  </si>
+  <si>
+    <t>TX20C_I047K01N38</t>
+  </si>
+  <si>
+    <t>0.697093</t>
+  </si>
+  <si>
+    <t>TX20C_I080K01N38</t>
+  </si>
+  <si>
+    <t>0.837004</t>
+  </si>
+  <si>
+    <t>TX20C_I084K01N38</t>
+  </si>
+  <si>
+    <t>0.954645</t>
+  </si>
+  <si>
+    <t>TX20C_I048K01N38</t>
+  </si>
+  <si>
+    <t>0.852829</t>
+  </si>
+  <si>
+    <t>TX20C_I098K01N38</t>
+  </si>
+  <si>
+    <t>0.852277</t>
+  </si>
+  <si>
+    <t>TX20C_I077K01N38</t>
+  </si>
+  <si>
+    <t>0.784914</t>
+  </si>
+  <si>
+    <t>TX20C_I079K01N38</t>
+  </si>
+  <si>
+    <t>0.897154</t>
+  </si>
+  <si>
+    <t>TX20C_I096K01N38</t>
+  </si>
+  <si>
+    <t>0.912889</t>
+  </si>
+  <si>
+    <t>TX20C_I035K01N38</t>
+  </si>
+  <si>
+    <t>0.899247</t>
+  </si>
+  <si>
+    <t>TX20C_I095K01N38</t>
+  </si>
+  <si>
+    <t>0.773506</t>
+  </si>
+  <si>
+    <t>TX20C_I068K01N38</t>
+  </si>
+  <si>
+    <t>0.822712</t>
+  </si>
+  <si>
+    <t>TX20C_I066K01N38</t>
+  </si>
+  <si>
+    <t>0.764728</t>
+  </si>
+  <si>
+    <t>TX20C_I073K01N38</t>
+  </si>
+  <si>
+    <t>0.982927</t>
+  </si>
+  <si>
+    <t>TX20C_I038K01N38</t>
+  </si>
+  <si>
+    <t>0.936731</t>
+  </si>
+  <si>
+    <t>TX20C_I062K01N38</t>
+  </si>
+  <si>
+    <t>0.897329</t>
+  </si>
+  <si>
+    <t>TX20C_I075K01N38</t>
+  </si>
+  <si>
+    <t>0.853489</t>
+  </si>
+  <si>
+    <t>TX20C_I024K01N38</t>
+  </si>
+  <si>
+    <t>0.959480</t>
+  </si>
+  <si>
+    <t>TX20C_I011K01N38</t>
+  </si>
+  <si>
+    <t>0.950075</t>
+  </si>
+  <si>
+    <t>TX20C_I016K01N38</t>
+  </si>
+  <si>
+    <t>0.873623</t>
+  </si>
+  <si>
+    <t>TX20C_I069K01N38</t>
+  </si>
+  <si>
+    <t>0.830023</t>
+  </si>
+  <si>
+    <t>TX20C_I014K01N38</t>
+  </si>
+  <si>
+    <t>0.885738</t>
+  </si>
+  <si>
+    <t>TX20C_I018K01N38</t>
+  </si>
+  <si>
+    <t>1.081159</t>
+  </si>
+  <si>
+    <t>TX20C_I040K01N38</t>
+  </si>
+  <si>
+    <t>0.750794</t>
+  </si>
+  <si>
+    <t>TX20C_I085K01N38</t>
+  </si>
+  <si>
+    <t>1.063045</t>
+  </si>
+  <si>
+    <t>TX20C_I003K01N38</t>
+  </si>
+  <si>
+    <t>0.930215</t>
+  </si>
+  <si>
+    <t>TX20C_I087K01N38</t>
+  </si>
+  <si>
+    <t>0.878990</t>
+  </si>
+  <si>
+    <t>TX20C_I051K01N38</t>
+  </si>
+  <si>
+    <t>1.061226</t>
+  </si>
+  <si>
+    <t>TX20C_I081K01N38</t>
+  </si>
+  <si>
+    <t>0.939232</t>
+  </si>
+  <si>
+    <t>TX20C_I006K01N38</t>
+  </si>
+  <si>
+    <t>0.841481</t>
+  </si>
+  <si>
+    <t>TX20C_I056K01N38</t>
+  </si>
+  <si>
+    <t>0.999118</t>
   </si>
 </sst>
 </file>
@@ -509,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,6 +791,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,11 +815,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,7 +1145,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="26" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>4</v>
@@ -908,23 +1165,23 @@
         <v>10</v>
       </c>
       <c r="B4" s="22">
-        <f>MIN(DATA!E$2:E$101)</f>
-        <v>5.7200000000000003E-3</v>
+        <f>MIN(DATA!E$2:E$93)</f>
+        <v>1.2019999999999999E-2</v>
       </c>
       <c r="C4" s="8">
-        <f>MIN(DATA!F$2:F$101)</f>
+        <f>MIN(DATA!F$2:F$93)</f>
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.76261299999999999</v>
+        <f>MIN(DATA!G$2:G$93)</f>
+        <v>0.64743200000000001</v>
       </c>
       <c r="E4" s="8">
-        <f>MIN(DATA!H$2:H$101)</f>
+        <f>MIN(DATA!H$2:H$93)</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>MIN(DATA!I$2:I$101)</f>
+        <f>MIN(DATA!I$2:I$93)</f>
         <v>0</v>
       </c>
     </row>
@@ -933,24 +1190,24 @@
         <v>11</v>
       </c>
       <c r="B5" s="22">
-        <f>MAX(DATA!E$2:E$101)</f>
-        <v>5.5590000000000001E-2</v>
+        <f>MAX(DATA!E$2:E$93)</f>
+        <v>7.4060000000000001E-2</v>
       </c>
       <c r="C5" s="8">
-        <f>MAX(DATA!F$2:F$101)</f>
-        <v>4.4816000000000002E-2</v>
+        <f>MAX(DATA!F$2:F$93)</f>
+        <v>0.105198</v>
       </c>
       <c r="D5" s="8">
-        <f>MAX(DATA!G$2:G$101)</f>
+        <f>MAX(DATA!G$2:G$93)</f>
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.84352899999999997</v>
+        <f>MAX(DATA!H$2:H$93)</f>
+        <v>1.165446</v>
       </c>
       <c r="F5" s="8">
-        <f>MAX(DATA!I$2:I$101)</f>
-        <v>0.68059099999999995</v>
+        <f>MAX(DATA!I$2:I$93)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -958,24 +1215,24 @@
         <v>12</v>
       </c>
       <c r="B6" s="22">
-        <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>1.6900200000000001E-2</v>
+        <f>AVERAGE(DATA!E$2:E$93)</f>
+        <v>3.9184021739130437E-2</v>
       </c>
       <c r="C6" s="8">
-        <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>1.4643330000000001E-2</v>
+        <f>AVERAGE(DATA!F$2:F$93)</f>
+        <v>3.7573456521739136E-2</v>
       </c>
       <c r="D6" s="8">
-        <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.90583843999999958</v>
+        <f>AVERAGE(DATA!G$2:G$93)</f>
+        <v>0.7400044891304346</v>
       </c>
       <c r="E6" s="8">
-        <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.43839830000000002</v>
-      </c>
-      <c r="F6" s="8">
-        <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>0.22920274000000002</v>
+        <f>AVERAGE(DATA!H$2:H$93)</f>
+        <v>0.93439033695652196</v>
+      </c>
+      <c r="F6" s="8" t="e">
+        <f>AVERAGE(DATA!I$2:I$93)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,24 +1240,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="22">
-        <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>1.4865E-2</v>
+        <f>MEDIAN(DATA!E$2:E$93)</f>
+        <v>3.7975000000000002E-2</v>
       </c>
       <c r="C7" s="8">
-        <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>9.9799999999999993E-3</v>
+        <f>MEDIAN(DATA!F$2:F$93)</f>
+        <v>3.3450500000000001E-2</v>
       </c>
       <c r="D7" s="8">
-        <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.91751749999999999</v>
+        <f>MEDIAN(DATA!G$2:G$93)</f>
+        <v>0.74007699999999998</v>
       </c>
       <c r="E7" s="8">
-        <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.40402300000000002</v>
-      </c>
-      <c r="F7" s="8">
-        <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>0.19230949999999999</v>
+        <f>MEDIAN(DATA!H$2:H$93)</f>
+        <v>0.94724000000000008</v>
+      </c>
+      <c r="F7" s="8" t="e">
+        <f>MEDIAN(DATA!I$2:I$93)</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,24 +1265,24 @@
         <v>14</v>
       </c>
       <c r="B8" s="27">
-        <f>STDEV(DATA!E$2:E$101)</f>
-        <v>7.5965510488894793E-3</v>
+        <f>STDEV(DATA!E$2:E$93)</f>
+        <v>1.0781225955262376E-2</v>
       </c>
       <c r="C8" s="13">
-        <f>STDEV(DATA!F$2:F$101)</f>
-        <v>1.1292647125994072E-2</v>
+        <f>STDEV(DATA!F$2:F$93)</f>
+        <v>2.1302914688062741E-2</v>
       </c>
       <c r="D8" s="13">
-        <f>STDEV(DATA!G$2:G$101)</f>
-        <v>4.5378319144167283E-2</v>
+        <f>STDEV(DATA!G$2:G$93)</f>
+        <v>5.0055023296784483E-2</v>
       </c>
       <c r="E8" s="13">
-        <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.1625491096790895</v>
-      </c>
-      <c r="F8" s="13">
-        <f>STDEV(DATA!I$2:I$101)</f>
-        <v>0.12558730725687492</v>
+        <f>STDEV(DATA!H$2:H$93)</f>
+        <v>0.14012317825801096</v>
+      </c>
+      <c r="F8" s="13" t="e">
+        <f>STDEV(DATA!I$2:I$93)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1076,24 +1333,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1110,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>4</v>
@@ -1121,2908 +1380,2676 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>80</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
-        <v>3085049.8974159998</v>
-      </c>
-      <c r="E2" s="21">
-        <v>8.8100000000000001E-3</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="A2" s="29">
+        <v>55</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>9007336.3957729992</v>
+      </c>
+      <c r="E2" s="32">
+        <v>3.3180000000000001E-2</v>
+      </c>
+      <c r="F2" s="32">
         <v>0</v>
       </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="32">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>3086692.152667</v>
+        <v>9033148.4608929995</v>
       </c>
       <c r="E3" s="22">
-        <v>1.396E-2</v>
+        <v>4.4970000000000003E-2</v>
       </c>
       <c r="F3" s="22">
-        <v>5.3200000000000003E-4</v>
+        <v>2.8660000000000001E-3</v>
       </c>
       <c r="G3" s="22">
-        <v>0.97811999999999999</v>
+        <v>0.79387099999999999</v>
       </c>
       <c r="H3" s="9">
-        <v>0.15829699999999999</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4.514E-2</v>
+        <v>0.80801000000000001</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>3089253.9103080002</v>
+        <v>9042543.0760769993</v>
       </c>
       <c r="E4" s="22">
-        <v>1.025E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="F4" s="22">
-        <v>1.3630000000000001E-3</v>
+        <v>3.9090000000000001E-3</v>
       </c>
       <c r="G4" s="22">
-        <v>0.96819999999999995</v>
+        <v>0.77662799999999999</v>
       </c>
       <c r="H4" s="9">
-        <v>0.18333199999999999</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7.0786000000000002E-2</v>
+        <v>0.84831699999999999</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>3092149.1845340002</v>
+        <v>9054734.1939950008</v>
       </c>
       <c r="E5" s="22">
-        <v>1.67E-2</v>
+        <v>4.9619999999999997E-2</v>
       </c>
       <c r="F5" s="22">
-        <v>2.3010000000000001E-3</v>
+        <v>5.2620000000000002E-3</v>
       </c>
       <c r="G5" s="22">
-        <v>0.95255999999999996</v>
+        <v>0.84188200000000002</v>
       </c>
       <c r="H5" s="9">
-        <v>0.23216800000000001</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.110823</v>
+        <v>0.67053099999999999</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>3095277.1491629998</v>
+        <v>9062349.6612480003</v>
       </c>
       <c r="E6" s="22">
-        <v>2.351E-2</v>
+        <v>3.218E-2</v>
       </c>
       <c r="F6" s="22">
-        <v>3.3149999999999998E-3</v>
+        <v>6.1079999999999997E-3</v>
       </c>
       <c r="G6" s="22">
-        <v>0.93831100000000001</v>
+        <v>0.78918299999999997</v>
       </c>
       <c r="H6" s="9">
-        <v>0.295236</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.145291</v>
+        <v>0.83160100000000003</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>3095570.8999910001</v>
+        <v>9065693.7004940007</v>
       </c>
       <c r="E7" s="22">
-        <v>1.175E-2</v>
+        <v>3.7789999999999997E-2</v>
       </c>
       <c r="F7" s="22">
-        <v>3.4099999999999998E-3</v>
+        <v>6.4790000000000004E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.94458600000000004</v>
+        <v>0.81281999999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>0.31060300000000002</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.12511</v>
+        <v>0.76066500000000004</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>3095986.1185170002</v>
+        <v>9092641.0066</v>
       </c>
       <c r="E8" s="22">
-        <v>8.5699999999999995E-3</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="F8" s="22">
-        <v>3.545E-3</v>
+        <v>9.4710000000000003E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.94657500000000006</v>
+        <v>0.754413</v>
       </c>
       <c r="H8" s="9">
-        <v>0.23966499999999999</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.12773300000000001</v>
+        <v>0.86889000000000005</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>3096533.0767669999</v>
+        <v>9106462.1535940003</v>
       </c>
       <c r="E9" s="22">
-        <v>2.8920000000000001E-2</v>
+        <v>3.4750000000000003E-2</v>
       </c>
       <c r="F9" s="22">
-        <v>3.722E-3</v>
+        <v>1.1004999999999999E-2</v>
       </c>
       <c r="G9" s="22">
-        <v>0.93042100000000005</v>
+        <v>0.77529400000000004</v>
       </c>
       <c r="H9" s="9">
-        <v>0.33017600000000003</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.16539499999999999</v>
+        <v>0.82916199999999995</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="23">
-        <v>3097466.5260589998</v>
+        <v>9112251.3530020006</v>
       </c>
       <c r="E10" s="22">
-        <v>1.1979999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="F10" s="22">
-        <v>4.0249999999999999E-3</v>
+        <v>1.1648E-2</v>
       </c>
       <c r="G10" s="22">
-        <v>0.93839600000000001</v>
+        <v>0.79333600000000004</v>
       </c>
       <c r="H10" s="9">
-        <v>0.28712799999999999</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.146229</v>
+        <v>0.80724899999999999</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>3097979.7429860001</v>
+        <v>9138493.3698750008</v>
       </c>
       <c r="E11" s="22">
-        <v>1.5800000000000002E-2</v>
+        <v>3.1719999999999998E-2</v>
       </c>
       <c r="F11" s="22">
-        <v>4.1910000000000003E-3</v>
+        <v>1.4560999999999999E-2</v>
       </c>
       <c r="G11" s="22">
-        <v>0.93675699999999995</v>
+        <v>0.74735600000000002</v>
       </c>
       <c r="H11" s="9">
-        <v>0.27640700000000001</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.15163399999999999</v>
+        <v>0.88586699999999996</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>9143375.9740810003</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3.4979999999999997E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1.5103E-2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.77298199999999995</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.822681</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23">
-        <v>3098804.5881989999</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1.78E-2</v>
-      </c>
-      <c r="F12" s="22">
-        <v>4.4580000000000002E-3</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.94244600000000001</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.31693500000000002</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.133552</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="23">
-        <v>3098833.131451</v>
+        <v>9151595.2375329994</v>
       </c>
       <c r="E13" s="22">
-        <v>2.7799999999999998E-2</v>
+        <v>2.937E-2</v>
       </c>
       <c r="F13" s="22">
-        <v>4.4679999999999997E-3</v>
+        <v>1.6015999999999999E-2</v>
       </c>
       <c r="G13" s="22">
-        <v>0.94257599999999997</v>
+        <v>0.773231</v>
       </c>
       <c r="H13" s="9">
-        <v>0.267619</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.135439</v>
+        <v>0.86593799999999999</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="23">
-        <v>3098873.4038149999</v>
+        <v>9152384.4605069999</v>
       </c>
       <c r="E14" s="22">
-        <v>1.9199999999999998E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="F14" s="22">
-        <v>4.4809999999999997E-3</v>
+        <v>1.6102999999999999E-2</v>
       </c>
       <c r="G14" s="22">
-        <v>0.94396100000000005</v>
+        <v>0.80708800000000003</v>
       </c>
       <c r="H14" s="9">
-        <v>0.225439</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.13575000000000001</v>
+        <v>0.77523500000000001</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>89</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23">
-        <v>3099074.748373</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1.0460000000000001E-2</v>
-      </c>
-      <c r="F15" s="22">
-        <v>4.5459999999999997E-3</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0.95537499999999997</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.26861600000000002</v>
-      </c>
-      <c r="I15" s="9">
-        <v>9.7908999999999996E-2</v>
+      <c r="A15" s="5">
+        <v>98</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <v>9155480.3638850003</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1.6447E-2</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.76711799999999997</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.89685499999999996</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>3099910.50135</v>
+        <v>9156338.4000070002</v>
       </c>
       <c r="E16" s="22">
-        <v>1.7590000000000001E-2</v>
+        <v>3.1289999999999998E-2</v>
       </c>
       <c r="F16" s="22">
-        <v>4.8170000000000001E-3</v>
+        <v>1.6542000000000001E-2</v>
       </c>
       <c r="G16" s="22">
-        <v>0.93782799999999999</v>
+        <v>0.76194600000000001</v>
       </c>
       <c r="H16" s="9">
-        <v>0.32063599999999998</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.145788</v>
+        <v>0.85310699999999995</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="23">
-        <v>3099932.4240219998</v>
+        <v>9157398.2961400002</v>
       </c>
       <c r="E17" s="22">
-        <v>2.495E-2</v>
+        <v>3.5430000000000003E-2</v>
       </c>
       <c r="F17" s="22">
-        <v>4.8240000000000002E-3</v>
+        <v>1.6660000000000001E-2</v>
       </c>
       <c r="G17" s="22">
-        <v>0.94415899999999997</v>
+        <v>0.82889599999999997</v>
       </c>
       <c r="H17" s="9">
-        <v>0.318828</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.123949</v>
+        <v>0.75460400000000005</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="23">
-        <v>3100333.7136369999</v>
+        <v>9164090.7694589999</v>
       </c>
       <c r="E18" s="22">
-        <v>1.491E-2</v>
+        <v>4.6170000000000003E-2</v>
       </c>
       <c r="F18" s="22">
-        <v>4.9540000000000001E-3</v>
+        <v>1.7402999999999998E-2</v>
       </c>
       <c r="G18" s="22">
-        <v>0.923566</v>
+        <v>0.82373399999999997</v>
       </c>
       <c r="H18" s="9">
-        <v>0.374805</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.17737800000000001</v>
+        <v>0.72199400000000002</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>3101384.5638000001</v>
+        <v>9165553.6559149995</v>
       </c>
       <c r="E19" s="22">
-        <v>1.6639999999999999E-2</v>
+        <v>3.9230000000000001E-2</v>
       </c>
       <c r="F19" s="22">
-        <v>5.2950000000000002E-3</v>
+        <v>1.7565000000000001E-2</v>
       </c>
       <c r="G19" s="22">
-        <v>0.94330999999999998</v>
+        <v>0.77812400000000004</v>
       </c>
       <c r="H19" s="9">
-        <v>0.33407700000000001</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.127247</v>
+        <v>0.85951900000000003</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>3101421.5879319999</v>
+        <v>9171324.1476370003</v>
       </c>
       <c r="E20" s="22">
-        <v>1.261E-2</v>
+        <v>4.2759999999999999E-2</v>
       </c>
       <c r="F20" s="22">
-        <v>5.3070000000000001E-3</v>
+        <v>1.8206E-2</v>
       </c>
       <c r="G20" s="22">
-        <v>0.96804900000000005</v>
+        <v>0.806647</v>
       </c>
       <c r="H20" s="9">
-        <v>0.21348500000000001</v>
-      </c>
-      <c r="I20" s="9">
-        <v>6.7089999999999997E-2</v>
+        <v>0.80149000000000004</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>3101613.7184759998</v>
+        <v>9180717.6003179997</v>
       </c>
       <c r="E21" s="22">
-        <v>1.1220000000000001E-2</v>
+        <v>3.8030000000000001E-2</v>
       </c>
       <c r="F21" s="22">
-        <v>5.3689999999999996E-3</v>
+        <v>1.9248999999999999E-2</v>
       </c>
       <c r="G21" s="22">
-        <v>0.97088799999999997</v>
+        <v>0.776536</v>
       </c>
       <c r="H21" s="9">
-        <v>0.202182</v>
-      </c>
-      <c r="I21" s="9">
-        <v>6.0826999999999999E-2</v>
+        <v>0.82248200000000005</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>3101791.2332100002</v>
+        <v>9182662.70156</v>
       </c>
       <c r="E22" s="22">
-        <v>6.8399999999999997E-3</v>
+        <v>3.066E-2</v>
       </c>
       <c r="F22" s="22">
-        <v>5.4270000000000004E-3</v>
+        <v>1.9465E-2</v>
       </c>
       <c r="G22" s="22">
-        <v>0.96863900000000003</v>
+        <v>0.73062000000000005</v>
       </c>
       <c r="H22" s="9">
-        <v>0.19132299999999999</v>
-      </c>
-      <c r="I22" s="9">
-        <v>6.8024000000000001E-2</v>
+        <v>0.964055</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>3103087.7121259999</v>
+        <v>9183588.9079780001</v>
       </c>
       <c r="E23" s="22">
-        <v>3.483E-2</v>
+        <v>3.5950000000000003E-2</v>
       </c>
       <c r="F23" s="22">
-        <v>5.8469999999999998E-3</v>
+        <v>1.9567999999999999E-2</v>
       </c>
       <c r="G23" s="22">
-        <v>0.92564100000000005</v>
+        <v>0.77320900000000004</v>
       </c>
       <c r="H23" s="9">
-        <v>0.38045800000000002</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.174655</v>
+        <v>0.89690499999999995</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>3103179.0418909998</v>
+        <v>9195530.2497170009</v>
       </c>
       <c r="E24" s="22">
-        <v>1.3849999999999999E-2</v>
+        <v>4.7690000000000003E-2</v>
       </c>
       <c r="F24" s="22">
-        <v>5.8760000000000001E-3</v>
+        <v>2.0892999999999998E-2</v>
       </c>
       <c r="G24" s="22">
-        <v>0.96114699999999997</v>
+        <v>0.75556699999999999</v>
       </c>
       <c r="H24" s="9">
-        <v>0.243372</v>
-      </c>
-      <c r="I24" s="9">
-        <v>8.3340999999999998E-2</v>
+        <v>0.90431600000000001</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>3103709.3243630002</v>
+        <v>9209052.3757130001</v>
       </c>
       <c r="E25" s="22">
-        <v>1.26E-2</v>
+        <v>4.3990000000000001E-2</v>
       </c>
       <c r="F25" s="22">
-        <v>6.0480000000000004E-3</v>
+        <v>2.2395000000000002E-2</v>
       </c>
       <c r="G25" s="22">
-        <v>0.91784299999999996</v>
+        <v>0.75359699999999996</v>
       </c>
       <c r="H25" s="9">
-        <v>0.36580200000000002</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.19500999999999999</v>
+        <v>0.88239000000000001</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>3105221.7416019998</v>
+        <v>9209151.4886569995</v>
       </c>
       <c r="E26" s="22">
-        <v>1.729E-2</v>
+        <v>5.5370000000000003E-2</v>
       </c>
       <c r="F26" s="22">
-        <v>6.5389999999999997E-3</v>
+        <v>2.2405999999999999E-2</v>
       </c>
       <c r="G26" s="22">
-        <v>0.93012499999999998</v>
+        <v>0.75361</v>
       </c>
       <c r="H26" s="9">
-        <v>0.35741000000000001</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.15955900000000001</v>
+        <v>0.89483500000000005</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>3105398.1024270002</v>
+        <v>9212267.103929</v>
       </c>
       <c r="E27" s="22">
-        <v>9.4299999999999991E-3</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="F27" s="22">
-        <v>6.5960000000000003E-3</v>
+        <v>2.2752000000000001E-2</v>
       </c>
       <c r="G27" s="22">
-        <v>0.94852400000000003</v>
+        <v>0.78049000000000002</v>
       </c>
       <c r="H27" s="9">
-        <v>0.30196699999999999</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.112155</v>
+        <v>0.83312600000000003</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>3105399.2691799998</v>
+        <v>9215302.5085339993</v>
       </c>
       <c r="E28" s="22">
-        <v>1.274E-2</v>
+        <v>3.7060000000000003E-2</v>
       </c>
       <c r="F28" s="22">
-        <v>6.5960000000000003E-3</v>
+        <v>2.3088999999999998E-2</v>
       </c>
       <c r="G28" s="22">
-        <v>0.94225599999999998</v>
+        <v>0.737734</v>
       </c>
       <c r="H28" s="9">
-        <v>0.33398699999999998</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0.12855800000000001</v>
+        <v>0.97055999999999998</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>3106049.008678</v>
+        <v>9215840.9954899997</v>
       </c>
       <c r="E29" s="22">
-        <v>1.4489999999999999E-2</v>
+        <v>5.4829999999999997E-2</v>
       </c>
       <c r="F29" s="22">
-        <v>6.8069999999999997E-3</v>
+        <v>2.3147999999999998E-2</v>
       </c>
       <c r="G29" s="22">
-        <v>0.89441300000000001</v>
+        <v>0.760714</v>
       </c>
       <c r="H29" s="9">
-        <v>0.399482</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.25653900000000002</v>
+        <v>0.91999399999999998</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>3106087.90442</v>
+        <v>9222826.3984099999</v>
       </c>
       <c r="E30" s="22">
-        <v>2.8830000000000001E-2</v>
+        <v>2.947E-2</v>
       </c>
       <c r="F30" s="22">
-        <v>6.8190000000000004E-3</v>
+        <v>2.3924000000000001E-2</v>
       </c>
       <c r="G30" s="22">
-        <v>0.93749700000000002</v>
+        <v>0.72813000000000005</v>
       </c>
       <c r="H30" s="9">
-        <v>0.35994300000000001</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0.13849400000000001</v>
+        <v>0.94474800000000003</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>3107143.102951</v>
+        <v>9233438.4782609995</v>
       </c>
       <c r="E31" s="22">
-        <v>2.384E-2</v>
+        <v>4.471E-2</v>
       </c>
       <c r="F31" s="22">
-        <v>7.1609999999999998E-3</v>
+        <v>2.5101999999999999E-2</v>
       </c>
       <c r="G31" s="22">
-        <v>0.937137</v>
+        <v>0.715028</v>
       </c>
       <c r="H31" s="9">
-        <v>0.34564899999999998</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0.14028099999999999</v>
+        <v>0.98508099999999998</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>3107187.051922</v>
+        <v>9235334.2369279992</v>
       </c>
       <c r="E32" s="22">
-        <v>1.6740000000000001E-2</v>
+        <v>4.512E-2</v>
       </c>
       <c r="F32" s="22">
-        <v>7.1760000000000001E-3</v>
+        <v>2.5312000000000001E-2</v>
       </c>
       <c r="G32" s="22">
-        <v>0.94865900000000003</v>
+        <v>0.74564399999999997</v>
       </c>
       <c r="H32" s="9">
-        <v>0.30090800000000001</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.11156199999999999</v>
+        <v>0.90020199999999995</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>3107360.955811</v>
+        <v>9238931.3496400006</v>
       </c>
       <c r="E33" s="22">
-        <v>1.061E-2</v>
+        <v>3.5959999999999999E-2</v>
       </c>
       <c r="F33" s="22">
-        <v>7.2319999999999997E-3</v>
+        <v>2.5711999999999999E-2</v>
       </c>
       <c r="G33" s="22">
-        <v>0.92965900000000001</v>
+        <v>0.74552300000000005</v>
       </c>
       <c r="H33" s="9">
-        <v>0.39711999999999997</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0.15790799999999999</v>
+        <v>0.91379200000000005</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>3107520.3272680002</v>
+        <v>9245194.6233469993</v>
       </c>
       <c r="E34" s="22">
-        <v>1.1520000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="F34" s="22">
-        <v>7.2839999999999997E-3</v>
+        <v>2.6407E-2</v>
       </c>
       <c r="G34" s="22">
-        <v>0.92727099999999996</v>
+        <v>0.78451800000000005</v>
       </c>
       <c r="H34" s="9">
-        <v>0.40568399999999999</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0.16411100000000001</v>
+        <v>0.83441699999999996</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="23">
-        <v>3107775.3929770002</v>
+        <v>9245727.0413869992</v>
       </c>
       <c r="E35" s="22">
-        <v>1.8200000000000001E-2</v>
+        <v>4.589E-2</v>
       </c>
       <c r="F35" s="22">
-        <v>7.3660000000000002E-3</v>
+        <v>2.6466E-2</v>
       </c>
       <c r="G35" s="22">
-        <v>0.94008899999999995</v>
+        <v>0.74036599999999997</v>
       </c>
       <c r="H35" s="9">
-        <v>0.34308699999999998</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.131633</v>
+        <v>0.96921000000000002</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>3108639.6992879999</v>
+        <v>9251922.3996970002</v>
       </c>
       <c r="E36" s="22">
-        <v>2.801E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="F36" s="22">
-        <v>7.646E-3</v>
+        <v>2.7154000000000001E-2</v>
       </c>
       <c r="G36" s="22">
-        <v>0.93523800000000001</v>
+        <v>0.77761000000000002</v>
       </c>
       <c r="H36" s="9">
-        <v>0.372058</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0.14302599999999999</v>
+        <v>0.86936199999999997</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="23">
-        <v>3108667.6161839999</v>
+        <v>9252724.1855660006</v>
       </c>
       <c r="E37" s="22">
-        <v>2.2679999999999999E-2</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="F37" s="22">
-        <v>7.6559999999999996E-3</v>
+        <v>2.7243E-2</v>
       </c>
       <c r="G37" s="22">
-        <v>0.94710000000000005</v>
+        <v>0.74954200000000004</v>
       </c>
       <c r="H37" s="9">
-        <v>0.31482399999999999</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0.11706900000000001</v>
+        <v>0.92249499999999995</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>3108940.7417649999</v>
+        <v>9256798.0426819995</v>
       </c>
       <c r="E38" s="22">
-        <v>2.6429999999999999E-2</v>
+        <v>5.5730000000000002E-2</v>
       </c>
       <c r="F38" s="22">
-        <v>7.744E-3</v>
+        <v>2.7695000000000001E-2</v>
       </c>
       <c r="G38" s="22">
-        <v>0.92825100000000005</v>
+        <v>0.77105599999999996</v>
       </c>
       <c r="H38" s="9">
-        <v>0.40311399999999997</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0.165599</v>
+        <v>0.88444900000000004</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>3108961.8384759999</v>
+        <v>9260474.1505130008</v>
       </c>
       <c r="E39" s="22">
-        <v>1.354E-2</v>
+        <v>4.2430000000000002E-2</v>
       </c>
       <c r="F39" s="22">
-        <v>7.7510000000000001E-3</v>
+        <v>2.8104000000000001E-2</v>
       </c>
       <c r="G39" s="22">
-        <v>0.93010199999999998</v>
+        <v>0.75131599999999998</v>
       </c>
       <c r="H39" s="9">
-        <v>0.397115</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0.15860399999999999</v>
+        <v>0.95365699999999998</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>3109360.5280149998</v>
+        <v>9268572.0805920009</v>
       </c>
       <c r="E40" s="22">
-        <v>9.9699999999999997E-3</v>
+        <v>3.5869999999999999E-2</v>
       </c>
       <c r="F40" s="22">
-        <v>7.8799999999999999E-3</v>
+        <v>2.9003000000000001E-2</v>
       </c>
       <c r="G40" s="22">
-        <v>0.94558200000000003</v>
+        <v>0.76318200000000003</v>
       </c>
       <c r="H40" s="9">
-        <v>0.32462200000000002</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0.118745</v>
+        <v>0.90381100000000003</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>3110179.1639680001</v>
+        <v>9270891.0955800004</v>
       </c>
       <c r="E41" s="22">
-        <v>1.031E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="F41" s="22">
-        <v>8.1449999999999995E-3</v>
+        <v>2.9260000000000001E-2</v>
       </c>
       <c r="G41" s="22">
-        <v>0.93179800000000002</v>
+        <v>0.73475100000000004</v>
       </c>
       <c r="H41" s="9">
-        <v>0.37382799999999999</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0.15305299999999999</v>
+        <v>0.97074099999999997</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>3110394.0300409999</v>
+        <v>9278036.3402430005</v>
       </c>
       <c r="E42" s="22">
-        <v>1.372E-2</v>
+        <v>1.9269999999999999E-2</v>
       </c>
       <c r="F42" s="22">
-        <v>8.2150000000000001E-3</v>
+        <v>3.0053E-2</v>
       </c>
       <c r="G42" s="22">
-        <v>0.930724</v>
+        <v>0.77068099999999995</v>
       </c>
       <c r="H42" s="9">
-        <v>0.30140699999999998</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0.167102</v>
+        <v>0.83257999999999999</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="23">
-        <v>3110897.821362</v>
+        <v>9287016.7622410003</v>
       </c>
       <c r="E43" s="22">
-        <v>1.553E-2</v>
+        <v>3.814E-2</v>
       </c>
       <c r="F43" s="22">
-        <v>8.378E-3</v>
+        <v>3.1050000000000001E-2</v>
       </c>
       <c r="G43" s="22">
-        <v>0.91774599999999995</v>
+        <v>0.80032300000000001</v>
       </c>
       <c r="H43" s="9">
-        <v>0.40493200000000001</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0.189609</v>
+        <v>0.80076000000000003</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>3111499.9900810001</v>
+        <v>9287270.2662560008</v>
       </c>
       <c r="E44" s="22">
-        <v>3.0269999999999998E-2</v>
+        <v>3.5409999999999997E-2</v>
       </c>
       <c r="F44" s="22">
-        <v>8.574E-3</v>
+        <v>3.1078000000000001E-2</v>
       </c>
       <c r="G44" s="22">
-        <v>0.90387399999999996</v>
+        <v>0.71363200000000004</v>
       </c>
       <c r="H44" s="9">
-        <v>0.48814099999999999</v>
-      </c>
-      <c r="I44" s="9">
-        <v>0.231492</v>
+        <v>1.0165759999999999</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>3111785.9700520001</v>
+        <v>9287433.1228940003</v>
       </c>
       <c r="E45" s="22">
-        <v>1.298E-2</v>
+        <v>5.5530000000000003E-2</v>
       </c>
       <c r="F45" s="22">
-        <v>8.6660000000000001E-3</v>
+        <v>3.1097E-2</v>
       </c>
       <c r="G45" s="22">
-        <v>0.92495799999999995</v>
+        <v>0.73324100000000003</v>
       </c>
       <c r="H45" s="9">
-        <v>0.389158</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0.17124200000000001</v>
+        <v>0.935724</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>3112653.325673</v>
+        <v>9292940.9444670007</v>
       </c>
       <c r="E46" s="22">
-        <v>1.482E-2</v>
+        <v>3.5159999999999997E-2</v>
       </c>
       <c r="F46" s="22">
-        <v>8.9470000000000001E-3</v>
+        <v>3.1708E-2</v>
       </c>
       <c r="G46" s="22">
-        <v>0.91468700000000003</v>
+        <v>0.73816300000000001</v>
       </c>
       <c r="H46" s="9">
-        <v>0.40993099999999999</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.19927400000000001</v>
+        <v>0.95698399999999995</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="23">
-        <v>3112704.5678440002</v>
+        <v>9304624.7347979993</v>
       </c>
       <c r="E47" s="22">
-        <v>1.7919999999999998E-2</v>
+        <v>5.5160000000000001E-2</v>
       </c>
       <c r="F47" s="22">
-        <v>8.9639999999999997E-3</v>
+        <v>3.3005E-2</v>
       </c>
       <c r="G47" s="22">
-        <v>0.91658499999999998</v>
+        <v>0.74361299999999997</v>
       </c>
       <c r="H47" s="9">
-        <v>0.37984800000000002</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0.196162</v>
+        <v>0.965036</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>3113080.4172140001</v>
+        <v>9312646.2901109997</v>
       </c>
       <c r="E48" s="22">
-        <v>1.251E-2</v>
+        <v>3.551E-2</v>
       </c>
       <c r="F48" s="22">
-        <v>9.0860000000000003E-3</v>
+        <v>3.3896000000000003E-2</v>
       </c>
       <c r="G48" s="22">
-        <v>0.91593400000000003</v>
+        <v>0.74959500000000001</v>
       </c>
       <c r="H48" s="9">
-        <v>0.39587299999999997</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0.196765</v>
+        <v>0.89693999999999996</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>3114090.9771770001</v>
+        <v>9312993.7448960003</v>
       </c>
       <c r="E49" s="22">
-        <v>1.388E-2</v>
+        <v>4.589E-2</v>
       </c>
       <c r="F49" s="22">
-        <v>9.4129999999999995E-3</v>
+        <v>3.3933999999999999E-2</v>
       </c>
       <c r="G49" s="22">
-        <v>0.89490999999999998</v>
+        <v>0.75267700000000004</v>
       </c>
       <c r="H49" s="9">
-        <v>0.40628700000000001</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0.25362400000000002</v>
+        <v>0.93483300000000003</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>3115463.8412700002</v>
+        <v>9315750.6731589995</v>
       </c>
       <c r="E50" s="22">
-        <v>2.2190000000000001E-2</v>
+        <v>3.721E-2</v>
       </c>
       <c r="F50" s="22">
-        <v>9.8580000000000004E-3</v>
+        <v>3.424E-2</v>
       </c>
       <c r="G50" s="22">
-        <v>0.92691500000000004</v>
+        <v>0.74512800000000001</v>
       </c>
       <c r="H50" s="9">
-        <v>0.35350199999999998</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0.17105100000000001</v>
+        <v>0.95080699999999996</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>3115816.960467</v>
+        <v>9330278.5914040003</v>
       </c>
       <c r="E51" s="22">
-        <v>2.3619999999999999E-2</v>
+        <v>3.5090000000000003E-2</v>
       </c>
       <c r="F51" s="22">
-        <v>9.9729999999999992E-3</v>
+        <v>3.5853000000000003E-2</v>
       </c>
       <c r="G51" s="22">
-        <v>0.87760700000000003</v>
+        <v>0.72592100000000004</v>
       </c>
       <c r="H51" s="9">
-        <v>0.493755</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0.29441299999999998</v>
+        <v>0.96531</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>3115860.0884290002</v>
+        <v>9344097.4760890007</v>
       </c>
       <c r="E52" s="22">
-        <v>2.793E-2</v>
+        <v>5.842E-2</v>
       </c>
       <c r="F52" s="22">
-        <v>9.9869999999999994E-3</v>
+        <v>3.7386999999999997E-2</v>
       </c>
       <c r="G52" s="22">
-        <v>0.90133099999999999</v>
+        <v>0.71397900000000003</v>
       </c>
       <c r="H52" s="9">
-        <v>0.42618899999999998</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.24099899999999999</v>
+        <v>0.94809200000000005</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>3116074.4852029998</v>
+        <v>9345919.0229039993</v>
       </c>
       <c r="E53" s="22">
-        <v>2.8320000000000001E-2</v>
+        <v>4.3180000000000003E-2</v>
       </c>
       <c r="F53" s="22">
-        <v>1.0056000000000001E-2</v>
+        <v>3.7589999999999998E-2</v>
       </c>
       <c r="G53" s="22">
-        <v>0.90514899999999998</v>
+        <v>0.76108100000000001</v>
       </c>
       <c r="H53" s="9">
-        <v>0.481319</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0.22247500000000001</v>
+        <v>0.91429700000000003</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>3117426.8525029998</v>
+        <v>9351644.5271070004</v>
       </c>
       <c r="E54" s="22">
-        <v>9.6500000000000006E-3</v>
+        <v>4.9140000000000003E-2</v>
       </c>
       <c r="F54" s="22">
-        <v>1.0495000000000001E-2</v>
+        <v>3.8225000000000002E-2</v>
       </c>
       <c r="G54" s="22">
-        <v>0.92780499999999999</v>
+        <v>0.72782500000000006</v>
       </c>
       <c r="H54" s="9">
-        <v>0.38722299999999998</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0.16934099999999999</v>
+        <v>0.99978900000000004</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>3119384.4493249999</v>
+        <v>9356054.4245219994</v>
       </c>
       <c r="E55" s="22">
-        <v>5.5590000000000001E-2</v>
+        <v>3.8379999999999997E-2</v>
       </c>
       <c r="F55" s="22">
-        <v>1.1129E-2</v>
+        <v>3.8714999999999999E-2</v>
       </c>
       <c r="G55" s="22">
-        <v>0.92200400000000005</v>
+        <v>0.69174500000000005</v>
       </c>
       <c r="H55" s="9">
-        <v>0.42135800000000001</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0.176812</v>
+        <v>1.0515330000000001</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>3119499.5864860001</v>
+        <v>9377569.0355760008</v>
       </c>
       <c r="E56" s="22">
-        <v>2.8559999999999999E-2</v>
+        <v>3.7920000000000002E-2</v>
       </c>
       <c r="F56" s="22">
-        <v>1.1167E-2</v>
+        <v>4.1103000000000001E-2</v>
       </c>
       <c r="G56" s="22">
-        <v>0.93226900000000001</v>
+        <v>0.71599699999999999</v>
       </c>
       <c r="H56" s="9">
-        <v>0.36797000000000002</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0.154006</v>
+        <v>1.0116989999999999</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>3119502.9342740001</v>
+        <v>9386703.1835719999</v>
       </c>
       <c r="E57" s="22">
-        <v>2.2499999999999999E-2</v>
+        <v>3.1789999999999999E-2</v>
       </c>
       <c r="F57" s="22">
-        <v>1.1168000000000001E-2</v>
+        <v>4.2118000000000003E-2</v>
       </c>
       <c r="G57" s="22">
-        <v>0.905559</v>
+        <v>0.75321300000000002</v>
       </c>
       <c r="H57" s="9">
-        <v>0.458175</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0.22395200000000001</v>
+        <v>0.90330600000000005</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="23">
-        <v>3121236.7589079998</v>
+        <v>9398881.8264659997</v>
       </c>
       <c r="E58" s="22">
-        <v>2.2239999999999999E-2</v>
+        <v>3.8980000000000001E-2</v>
       </c>
       <c r="F58" s="22">
-        <v>1.1730000000000001E-2</v>
+        <v>4.3470000000000002E-2</v>
       </c>
       <c r="G58" s="22">
-        <v>0.91728900000000002</v>
+        <v>0.72613099999999997</v>
       </c>
       <c r="H58" s="9">
-        <v>0.39940399999999998</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0.19700200000000001</v>
+        <v>0.92984999999999995</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>3121744.327881</v>
+        <v>9420481.9971709996</v>
       </c>
       <c r="E59" s="22">
-        <v>1.9529999999999999E-2</v>
+        <v>4.9529999999999998E-2</v>
       </c>
       <c r="F59" s="22">
-        <v>1.1894E-2</v>
+        <v>4.5867999999999999E-2</v>
       </c>
       <c r="G59" s="22">
-        <v>0.91001799999999999</v>
+        <v>0.67491400000000001</v>
       </c>
       <c r="H59" s="9">
-        <v>0.41650599999999999</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0.214062</v>
+        <v>1.0417460000000001</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>3124044.0483360002</v>
+        <v>9424903.16976</v>
       </c>
       <c r="E60" s="22">
-        <v>9.6699999999999998E-3</v>
+        <v>4.3229999999999998E-2</v>
       </c>
       <c r="F60" s="22">
-        <v>1.264E-2</v>
+        <v>4.6358999999999997E-2</v>
       </c>
       <c r="G60" s="22">
-        <v>0.90029000000000003</v>
+        <v>0.71012299999999995</v>
       </c>
       <c r="H60" s="9">
-        <v>0.47716399999999998</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0.25354500000000002</v>
+        <v>1.0191220000000001</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>3124547.9356769999</v>
+        <v>9430193.1910410002</v>
       </c>
       <c r="E61" s="22">
-        <v>1.703E-2</v>
+        <v>4.6080000000000003E-2</v>
       </c>
       <c r="F61" s="22">
-        <v>1.2803E-2</v>
+        <v>4.6946000000000002E-2</v>
       </c>
       <c r="G61" s="22">
-        <v>0.930369</v>
+        <v>0.72687900000000005</v>
       </c>
       <c r="H61" s="9">
-        <v>0.37048900000000001</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0.159081</v>
+        <v>0.921516</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>3127873.7547610002</v>
+        <v>9433067.0278190002</v>
       </c>
       <c r="E62" s="22">
-        <v>1.8120000000000001E-2</v>
+        <v>2.5139999999999999E-2</v>
       </c>
       <c r="F62" s="22">
-        <v>1.3880999999999999E-2</v>
+        <v>4.7265000000000001E-2</v>
       </c>
       <c r="G62" s="22">
-        <v>0.90825400000000001</v>
+        <v>0.74696799999999997</v>
       </c>
       <c r="H62" s="9">
-        <v>0.43451899999999999</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0.21660799999999999</v>
+        <v>0.93171800000000005</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>3127907.1034510001</v>
+        <v>9451984.1907839999</v>
       </c>
       <c r="E63" s="22">
-        <v>1.319E-2</v>
+        <v>4.8239999999999998E-2</v>
       </c>
       <c r="F63" s="22">
-        <v>1.3892E-2</v>
+        <v>4.9364999999999999E-2</v>
       </c>
       <c r="G63" s="22">
-        <v>0.890015</v>
+        <v>0.74147200000000002</v>
       </c>
       <c r="H63" s="9">
-        <v>0.46109499999999998</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0.270536</v>
+        <v>0.94638800000000001</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>3129394.0290780002</v>
+        <v>9457603.0847350005</v>
       </c>
       <c r="E64" s="22">
-        <v>1.396E-2</v>
+        <v>4.0770000000000001E-2</v>
       </c>
       <c r="F64" s="22">
-        <v>1.4374E-2</v>
+        <v>4.9988999999999999E-2</v>
       </c>
       <c r="G64" s="22">
-        <v>0.87969900000000001</v>
+        <v>0.74932100000000001</v>
       </c>
       <c r="H64" s="9">
-        <v>0.49155100000000002</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0.29053099999999998</v>
+        <v>0.94055200000000005</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="23">
-        <v>3129994.3601020002</v>
+        <v>9458282.4108070005</v>
       </c>
       <c r="E65" s="22">
-        <v>1.728E-2</v>
+        <v>2.6169999999999999E-2</v>
       </c>
       <c r="F65" s="22">
-        <v>1.4567999999999999E-2</v>
+        <v>5.0063999999999997E-2</v>
       </c>
       <c r="G65" s="22">
-        <v>0.90390199999999998</v>
+        <v>0.71708700000000003</v>
       </c>
       <c r="H65" s="9">
-        <v>0.455484</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0.23099600000000001</v>
+        <v>1.051755</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="23">
-        <v>3130759.7822719999</v>
+        <v>9463264.520459</v>
       </c>
       <c r="E66" s="22">
-        <v>2.351E-2</v>
+        <v>3.2259999999999997E-2</v>
       </c>
       <c r="F66" s="22">
-        <v>1.4817E-2</v>
+        <v>5.0617000000000002E-2</v>
       </c>
       <c r="G66" s="22">
-        <v>0.87052799999999997</v>
+        <v>0.68372999999999995</v>
       </c>
       <c r="H66" s="9">
-        <v>0.55279999999999996</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0.32129200000000002</v>
+        <v>1.0647979999999999</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>3133743.6575699998</v>
+        <v>9469742.9122550003</v>
       </c>
       <c r="E67" s="22">
-        <v>1.8440000000000002E-2</v>
+        <v>5.4359999999999999E-2</v>
       </c>
       <c r="F67" s="22">
-        <v>1.5783999999999999E-2</v>
+        <v>5.1337000000000001E-2</v>
       </c>
       <c r="G67" s="22">
-        <v>0.88073800000000002</v>
+        <v>0.70058699999999996</v>
       </c>
       <c r="H67" s="9">
-        <v>0.53992799999999996</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0.28958699999999998</v>
+        <v>1.0118020000000001</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>3134069.3778090002</v>
+        <v>9470059.2967750002</v>
       </c>
       <c r="E68" s="22">
-        <v>1.898E-2</v>
+        <v>6.0990000000000003E-2</v>
       </c>
       <c r="F68" s="22">
-        <v>1.5889E-2</v>
+        <v>5.1372000000000001E-2</v>
       </c>
       <c r="G68" s="22">
-        <v>0.88991100000000001</v>
+        <v>0.71054499999999998</v>
       </c>
       <c r="H68" s="9">
-        <v>0.50451599999999996</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0.26624900000000001</v>
+        <v>1.0154319999999999</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>3134460.9193500001</v>
+        <v>9476114.3462790009</v>
       </c>
       <c r="E69" s="22">
-        <v>2.086E-2</v>
+        <v>2.937E-2</v>
       </c>
       <c r="F69" s="22">
-        <v>1.6015999999999999E-2</v>
+        <v>5.2044E-2</v>
       </c>
       <c r="G69" s="22">
-        <v>0.89997700000000003</v>
+        <v>0.725248</v>
       </c>
       <c r="H69" s="9">
-        <v>0.43290000000000001</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0.24382999999999999</v>
+        <v>0.98760800000000004</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="23">
-        <v>3136729.8953780001</v>
+        <v>9490953.0763780009</v>
       </c>
       <c r="E70" s="22">
-        <v>2.239E-2</v>
+        <v>3.9640000000000002E-2</v>
       </c>
       <c r="F70" s="22">
-        <v>1.6752E-2</v>
+        <v>5.3691000000000003E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.86223300000000003</v>
+        <v>0.68886499999999995</v>
       </c>
       <c r="H70" s="9">
-        <v>0.62412100000000004</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0.34494200000000003</v>
+        <v>1.0497160000000001</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>3139768.0463419999</v>
+        <v>9491531.8156080004</v>
       </c>
       <c r="E71" s="22">
-        <v>1.142E-2</v>
+        <v>2.6939999999999999E-2</v>
       </c>
       <c r="F71" s="22">
-        <v>1.7736999999999999E-2</v>
+        <v>5.3755999999999998E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.85658999999999996</v>
+        <v>0.700407</v>
       </c>
       <c r="H71" s="9">
-        <v>0.64407099999999995</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0.36420000000000002</v>
+        <v>1.0393300000000001</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="23">
-        <v>3142846.7943489999</v>
+        <v>9507644.3746719994</v>
       </c>
       <c r="E72" s="22">
-        <v>3.3259999999999998E-2</v>
+        <v>3.2829999999999998E-2</v>
       </c>
       <c r="F72" s="22">
-        <v>1.8735000000000002E-2</v>
+        <v>5.5544000000000003E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.89032500000000003</v>
+        <v>0.68796000000000002</v>
       </c>
       <c r="H72" s="9">
-        <v>0.44948700000000003</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0.28700900000000001</v>
+        <v>1.053436</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>3144476.0273449998</v>
+        <v>9509709.5320009999</v>
       </c>
       <c r="E73" s="22">
-        <v>1.052E-2</v>
+        <v>4.0649999999999999E-2</v>
       </c>
       <c r="F73" s="22">
-        <v>1.9262999999999999E-2</v>
+        <v>5.5773999999999997E-2</v>
       </c>
       <c r="G73" s="22">
-        <v>0.85869300000000004</v>
+        <v>0.73858800000000002</v>
       </c>
       <c r="H73" s="9">
-        <v>0.62083999999999995</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0.354516</v>
+        <v>0.95500499999999999</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>3147449.512776</v>
+        <v>9521712.4678179994</v>
       </c>
       <c r="E74" s="22">
-        <v>1.094E-2</v>
+        <v>2.9680000000000002E-2</v>
       </c>
       <c r="F74" s="22">
-        <v>2.0226000000000001E-2</v>
+        <v>5.7105999999999997E-2</v>
       </c>
       <c r="G74" s="22">
-        <v>0.91929899999999998</v>
+        <v>0.72533400000000003</v>
       </c>
       <c r="H74" s="9">
-        <v>0.45449200000000001</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0.18529200000000001</v>
+        <v>0.99185599999999996</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>3147895.3405530001</v>
+        <v>9529196.2385179996</v>
       </c>
       <c r="E75" s="22">
-        <v>9.3799999999999994E-3</v>
+        <v>3.3959999999999997E-2</v>
       </c>
       <c r="F75" s="22">
-        <v>2.0371E-2</v>
+        <v>5.7937000000000002E-2</v>
       </c>
       <c r="G75" s="22">
-        <v>0.88028700000000004</v>
+        <v>0.73255899999999996</v>
       </c>
       <c r="H75" s="9">
-        <v>0.50628700000000004</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0.29336299999999998</v>
+        <v>0.96704800000000002</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>3148092.1208230001</v>
+        <v>9531537.4660449997</v>
       </c>
       <c r="E76" s="22">
-        <v>2.3300000000000001E-2</v>
+        <v>4.0460000000000003E-2</v>
       </c>
       <c r="F76" s="22">
-        <v>2.0434999999999998E-2</v>
+        <v>5.8196999999999999E-2</v>
       </c>
       <c r="G76" s="22">
-        <v>0.87245600000000001</v>
+        <v>0.66267299999999996</v>
       </c>
       <c r="H76" s="9">
-        <v>0.56189999999999996</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0.313467</v>
+        <v>1.0929720000000001</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>3149888.9516870002</v>
+        <v>9531697.6371810008</v>
       </c>
       <c r="E77" s="22">
-        <v>9.3399999999999993E-3</v>
+        <v>7.4060000000000001E-2</v>
       </c>
       <c r="F77" s="22">
-        <v>2.1017000000000001E-2</v>
+        <v>5.8215000000000003E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.93907200000000002</v>
+        <v>0.67310300000000001</v>
       </c>
       <c r="H77" s="9">
-        <v>0.33287699999999998</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0.13658000000000001</v>
+        <v>1.0652159999999999</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>3152933.2079179999</v>
+        <v>9541712.0711150002</v>
       </c>
       <c r="E78" s="22">
-        <v>2.036E-2</v>
+        <v>4.6030000000000001E-2</v>
       </c>
       <c r="F78" s="22">
-        <v>2.2003999999999999E-2</v>
+        <v>5.9326999999999998E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.91638200000000003</v>
+        <v>0.67754300000000001</v>
       </c>
       <c r="H78" s="9">
-        <v>0.43564700000000001</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0.18845000000000001</v>
+        <v>1.016993</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>3153963.597693</v>
+        <v>9551038.1636660006</v>
       </c>
       <c r="E79" s="22">
-        <v>1.1939999999999999E-2</v>
+        <v>4.8239999999999998E-2</v>
       </c>
       <c r="F79" s="22">
-        <v>2.2338E-2</v>
+        <v>6.0361999999999999E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.88936599999999999</v>
+        <v>0.71001800000000004</v>
       </c>
       <c r="H79" s="9">
-        <v>0.53302000000000005</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0.266847</v>
+        <v>1.0442009999999999</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>3155717.172146</v>
+        <v>9558539.1445799991</v>
       </c>
       <c r="E80" s="22">
-        <v>2.845E-2</v>
+        <v>3.4410000000000003E-2</v>
       </c>
       <c r="F80" s="22">
-        <v>2.2905999999999999E-2</v>
+        <v>6.1194999999999999E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.86248899999999995</v>
+        <v>0.68941200000000002</v>
       </c>
       <c r="H80" s="9">
-        <v>0.55954099999999996</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0.35167599999999999</v>
+        <v>1.092079</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>3159100.6323569999</v>
+        <v>9562225.1775090005</v>
       </c>
       <c r="E81" s="22">
-        <v>1.349E-2</v>
+        <v>1.9640000000000001E-2</v>
       </c>
       <c r="F81" s="22">
-        <v>2.4003E-2</v>
+        <v>6.1603999999999999E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.81636500000000001</v>
+        <v>0.68583499999999997</v>
       </c>
       <c r="H81" s="9">
-        <v>0.65201600000000004</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0.455461</v>
+        <v>1.0814999999999999</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>3159651.358002</v>
+        <v>9573497.2243520003</v>
       </c>
       <c r="E82" s="22">
-        <v>8.1899999999999994E-3</v>
+        <v>4.2229999999999997E-2</v>
       </c>
       <c r="F82" s="22">
-        <v>2.4181999999999999E-2</v>
+        <v>6.2855999999999995E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.83023100000000005</v>
+        <v>0.70038100000000003</v>
       </c>
       <c r="H82" s="9">
-        <v>0.72150099999999995</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0.463974</v>
+        <v>1.031868</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="23">
-        <v>3168477.3561320002</v>
+        <v>9585206.8320250008</v>
       </c>
       <c r="E83" s="22">
-        <v>1.2800000000000001E-2</v>
+        <v>4.1680000000000002E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>2.7042E-2</v>
+        <v>6.4156000000000005E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.87856000000000001</v>
+        <v>0.71619200000000005</v>
       </c>
       <c r="H83" s="9">
-        <v>0.58705799999999997</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0.28897499999999998</v>
+        <v>1.0088649999999999</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>3169588.2939200001</v>
+        <v>9590167.4988940004</v>
       </c>
       <c r="E84" s="22">
-        <v>1.0290000000000001E-2</v>
+        <v>3.1690000000000003E-2</v>
       </c>
       <c r="F84" s="22">
-        <v>2.7403E-2</v>
+        <v>6.4706E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.76261299999999999</v>
+        <v>0.68579500000000004</v>
       </c>
       <c r="H84" s="9">
-        <v>0.84352899999999997</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0.68059099999999995</v>
+        <v>1.038154</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>3169991.963639</v>
+        <v>9605731.9561950006</v>
       </c>
       <c r="E85" s="22">
-        <v>8.7899999999999992E-3</v>
+        <v>4.8329999999999998E-2</v>
       </c>
       <c r="F85" s="22">
-        <v>2.7532999999999998E-2</v>
+        <v>6.6434000000000007E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.926597</v>
+        <v>0.65585499999999997</v>
       </c>
       <c r="H85" s="9">
-        <v>0.36072900000000002</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0.17091100000000001</v>
+        <v>1.165446</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>3175056.3711450002</v>
+        <v>9613230.5093879998</v>
       </c>
       <c r="E86" s="22">
-        <v>2.036E-2</v>
+        <v>3.764E-2</v>
       </c>
       <c r="F86" s="22">
-        <v>2.9175E-2</v>
+        <v>6.7266999999999993E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.83892299999999997</v>
+        <v>0.739788</v>
       </c>
       <c r="H86" s="9">
-        <v>0.68941699999999995</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0.41961700000000002</v>
+        <v>0.96458100000000002</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>3175202.6632309998</v>
+        <v>9616875.7734670006</v>
       </c>
       <c r="E87" s="22">
-        <v>1.172E-2</v>
+        <v>3.4660000000000003E-2</v>
       </c>
       <c r="F87" s="22">
-        <v>2.9222000000000001E-2</v>
+        <v>6.7670999999999995E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.82550599999999996</v>
+        <v>0.65705000000000002</v>
       </c>
       <c r="H87" s="9">
-        <v>0.70276000000000005</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0.454764</v>
+        <v>1.149921</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>3178398.515135</v>
+        <v>9635227.9936989993</v>
       </c>
       <c r="E88" s="22">
-        <v>1.1350000000000001E-2</v>
+        <v>3.0450000000000001E-2</v>
       </c>
       <c r="F88" s="22">
-        <v>3.0258E-2</v>
+        <v>6.9708999999999993E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.88353999999999999</v>
+        <v>0.69565399999999999</v>
       </c>
       <c r="H88" s="9">
-        <v>0.51656400000000002</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0.27637499999999998</v>
+        <v>1.0867070000000001</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="23">
-        <v>3188661.4198870002</v>
+        <v>9641529.2052779999</v>
       </c>
       <c r="E89" s="22">
-        <v>8.2799999999999992E-3</v>
+        <v>6.9690000000000002E-2</v>
       </c>
       <c r="F89" s="22">
-        <v>3.3584999999999997E-2</v>
+        <v>7.0407999999999998E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.87763199999999997</v>
+        <v>0.69076300000000002</v>
       </c>
       <c r="H89" s="9">
-        <v>0.60852700000000004</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0.28978399999999999</v>
+        <v>1.0511600000000001</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>3191766.475848</v>
+        <v>9693470.0076759998</v>
       </c>
       <c r="E90" s="22">
-        <v>5.7200000000000003E-3</v>
+        <v>3.5279999999999999E-2</v>
       </c>
       <c r="F90" s="22">
-        <v>3.4591999999999998E-2</v>
+        <v>7.6175000000000007E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.85806099999999996</v>
+        <v>0.64743200000000001</v>
       </c>
       <c r="H90" s="9">
-        <v>0.62809599999999999</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0.35731600000000002</v>
+        <v>1.160622</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>3192799.345001</v>
+        <v>9702307.9158720002</v>
       </c>
       <c r="E91" s="22">
-        <v>1.2489999999999999E-2</v>
+        <v>3.4119999999999998E-2</v>
       </c>
       <c r="F91" s="22">
-        <v>3.4925999999999999E-2</v>
+        <v>7.7156000000000002E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.90321799999999997</v>
+        <v>0.67347599999999996</v>
       </c>
       <c r="H91" s="9">
-        <v>0.51578299999999999</v>
-      </c>
-      <c r="I91" s="9">
-        <v>0.22484499999999999</v>
+        <v>1.041911</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>3193270.757863</v>
+        <v>9825787.2392219994</v>
       </c>
       <c r="E92" s="22">
-        <v>1.5169999999999999E-2</v>
+        <v>3.5249999999999997E-2</v>
       </c>
       <c r="F92" s="22">
-        <v>3.5078999999999999E-2</v>
+        <v>9.0865000000000001E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.86712400000000001</v>
+        <v>0.69639899999999999</v>
       </c>
       <c r="H92" s="9">
-        <v>0.57748299999999997</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0.322548</v>
+        <v>0.95692999999999995</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="23">
-        <v>3194302.8380229999</v>
+        <v>9954886.3334400002</v>
       </c>
       <c r="E93" s="22">
-        <v>2.0709999999999999E-2</v>
+        <v>4.8529999999999997E-2</v>
       </c>
       <c r="F93" s="22">
-        <v>3.5414000000000001E-2</v>
+        <v>0.105198</v>
       </c>
       <c r="G93" s="22">
-        <v>0.83109900000000003</v>
+        <v>0.66622000000000003</v>
       </c>
       <c r="H93" s="9">
-        <v>0.73428099999999996</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0.43461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>76</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" s="23">
-        <v>3196490.6235079998</v>
-      </c>
-      <c r="E94" s="22">
-        <v>1.755E-2</v>
-      </c>
-      <c r="F94" s="22">
-        <v>3.6123000000000002E-2</v>
-      </c>
-      <c r="G94" s="22">
-        <v>0.85466200000000003</v>
-      </c>
-      <c r="H94" s="9">
-        <v>0.65291699999999997</v>
-      </c>
-      <c r="I94" s="9">
-        <v>0.36204999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>86</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="23">
-        <v>3202398.0378510002</v>
-      </c>
-      <c r="E95" s="22">
-        <v>1.8360000000000001E-2</v>
-      </c>
-      <c r="F95" s="22">
-        <v>3.8038000000000002E-2</v>
-      </c>
-      <c r="G95" s="22">
-        <v>0.78775099999999998</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0.81492900000000001</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0.57082299999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>61</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-      <c r="D96" s="23">
-        <v>3202517.2556929998</v>
-      </c>
-      <c r="E96" s="22">
-        <v>1.601E-2</v>
-      </c>
-      <c r="F96" s="22">
-        <v>3.8075999999999999E-2</v>
-      </c>
-      <c r="G96" s="22">
-        <v>0.81359400000000004</v>
-      </c>
-      <c r="H96" s="9">
-        <v>0.75750799999999996</v>
-      </c>
-      <c r="I96" s="9">
-        <v>0.48853000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>50</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" s="23">
-        <v>3203507.2110910001</v>
-      </c>
-      <c r="E97" s="22">
-        <v>1.225E-2</v>
-      </c>
-      <c r="F97" s="22">
-        <v>3.8397000000000001E-2</v>
-      </c>
-      <c r="G97" s="22">
-        <v>0.86049500000000001</v>
-      </c>
-      <c r="H97" s="9">
-        <v>0.65419899999999997</v>
-      </c>
-      <c r="I97" s="9">
-        <v>0.339698</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>22</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" s="23">
-        <v>3203508.7863469999</v>
-      </c>
-      <c r="E98" s="22">
-        <v>1.017E-2</v>
-      </c>
-      <c r="F98" s="22">
-        <v>3.8398000000000002E-2</v>
-      </c>
-      <c r="G98" s="22">
-        <v>0.82543100000000003</v>
-      </c>
-      <c r="H98" s="9">
-        <v>0.74414199999999997</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0.45365699999999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>53</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="23">
-        <v>3205286.0979490001</v>
-      </c>
-      <c r="E99" s="22">
-        <v>9.9699999999999997E-3</v>
-      </c>
-      <c r="F99" s="22">
-        <v>3.8974000000000002E-2</v>
-      </c>
-      <c r="G99" s="22">
-        <v>0.84723899999999996</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0.60082199999999997</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0.37117299999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" s="23">
-        <v>3209779.0985500002</v>
-      </c>
-      <c r="E100" s="22">
-        <v>1.4030000000000001E-2</v>
-      </c>
-      <c r="F100" s="22">
-        <v>4.0430000000000001E-2</v>
-      </c>
-      <c r="G100" s="22">
-        <v>0.78371800000000003</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0.82859499999999997</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0.59343699999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>71</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" s="23">
-        <v>3223308.4895720002</v>
-      </c>
-      <c r="E101" s="22">
-        <v>1.204E-2</v>
-      </c>
-      <c r="F101" s="22">
-        <v>4.4816000000000002E-2</v>
-      </c>
-      <c r="G101" s="22">
-        <v>0.83219100000000001</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0.75788</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0.43215900000000002</v>
+        <v>1.1094980000000001</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/maps/TX/TX20C_candidates.xlsx
+++ b/maps/TX/TX20C_candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D90CD0-5F7A-C841-AAA0-4B7D6769056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D173A07E-66A0-7E44-94AA-92A5EC66814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -132,563 +132,286 @@
     <t>TX20C_I054K01N38</t>
   </si>
   <si>
-    <t>0.000000</t>
-  </si>
-  <si>
     <t>TX20C_I017K01N38</t>
   </si>
   <si>
-    <t>0.602231</t>
-  </si>
-  <si>
     <t>TX20C_I060K01N38</t>
   </si>
   <si>
-    <t>0.647460</t>
-  </si>
-  <si>
     <t>TX20C_I041K01N38</t>
   </si>
   <si>
-    <t>0.418593</t>
-  </si>
-  <si>
     <t>TX20C_I008K01N38</t>
   </si>
   <si>
-    <t>0.591246</t>
-  </si>
-  <si>
     <t>TX20C_I021K01N38</t>
   </si>
   <si>
-    <t>0.503491</t>
-  </si>
-  <si>
     <t>TX20C_I057K01N38</t>
   </si>
   <si>
-    <t>0.738912</t>
-  </si>
-  <si>
     <t>TX20C_I082K01N38</t>
   </si>
   <si>
-    <t>0.670554</t>
-  </si>
-  <si>
     <t>TX20C_I070K01N38</t>
   </si>
   <si>
-    <t>0.581469</t>
-  </si>
-  <si>
     <t>TX20C_I058K01N38</t>
   </si>
   <si>
-    <t>0.774228</t>
-  </si>
-  <si>
     <t>TX20C_I032K01N38</t>
   </si>
   <si>
-    <t>0.650279</t>
-  </si>
-  <si>
     <t>TX20C_I050K01N38</t>
   </si>
   <si>
-    <t>0.630003</t>
-  </si>
-  <si>
     <t>TX20C_I004K01N38</t>
   </si>
   <si>
-    <t>0.518730</t>
-  </si>
-  <si>
     <t>TX20C_I097K01N38</t>
   </si>
   <si>
-    <t>0.647220</t>
-  </si>
-  <si>
     <t>TX20C_I039K01N38</t>
   </si>
   <si>
-    <t>0.651495</t>
-  </si>
-  <si>
     <t>TX20C_I092K01N38</t>
   </si>
   <si>
-    <t>0.448767</t>
-  </si>
-  <si>
     <t>TX20C_I020K01N38</t>
   </si>
   <si>
-    <t>0.461491</t>
-  </si>
-  <si>
     <t>TX20C_I007K01N38</t>
   </si>
   <si>
-    <t>0.637265</t>
-  </si>
-  <si>
     <t>TX20C_I000K01N38</t>
   </si>
   <si>
-    <t>0.535407</t>
-  </si>
-  <si>
     <t>TX20C_I065K01N38</t>
   </si>
   <si>
-    <t>0.578934</t>
-  </si>
-  <si>
     <t>TX20C_I090K01N38</t>
   </si>
   <si>
-    <t>0.781498</t>
-  </si>
-  <si>
     <t>TX20C_I037K01N38</t>
   </si>
   <si>
-    <t>0.630276</t>
-  </si>
-  <si>
     <t>TX20C_I030K01N38</t>
   </si>
   <si>
-    <t>0.685583</t>
-  </si>
-  <si>
     <t>TX20C_I074K01N38</t>
   </si>
   <si>
-    <t>0.687840</t>
-  </si>
-  <si>
     <t>TX20C_I022K01N38</t>
   </si>
   <si>
-    <t>0.709509</t>
-  </si>
-  <si>
     <t>TX20C_I053K01N38</t>
   </si>
   <si>
-    <t>0.592979</t>
-  </si>
-  <si>
     <t>TX20C_I086K01N38</t>
   </si>
   <si>
-    <t>0.788032</t>
-  </si>
-  <si>
     <t>TX20C_I023K01N38</t>
   </si>
   <si>
-    <t>0.683583</t>
-  </si>
-  <si>
     <t>TX20C_I088K01N38</t>
   </si>
   <si>
-    <t>0.776025</t>
-  </si>
-  <si>
     <t>TX20C_I046K01N38</t>
   </si>
   <si>
-    <t>0.845929</t>
-  </si>
-  <si>
     <t>TX20C_I012K01N38</t>
   </si>
   <si>
-    <t>0.741295</t>
-  </si>
-  <si>
     <t>TX20C_I094K01N38</t>
   </si>
   <si>
-    <t>0.714540</t>
-  </si>
-  <si>
     <t>TX20C_I067K01N38</t>
   </si>
   <si>
-    <t>0.598605</t>
-  </si>
-  <si>
     <t>TX20C_I072K01N38</t>
   </si>
   <si>
-    <t>0.762776</t>
-  </si>
-  <si>
     <t>TX20C_I043K01N38</t>
   </si>
   <si>
-    <t>0.614515</t>
-  </si>
-  <si>
     <t>TX20C_I091K01N38</t>
   </si>
   <si>
-    <t>0.682681</t>
-  </si>
-  <si>
     <t>TX20C_I044K01N38</t>
   </si>
   <si>
-    <t>0.614467</t>
-  </si>
-  <si>
     <t>TX20C_I013K01N38</t>
   </si>
   <si>
-    <t>0.721246</t>
-  </si>
-  <si>
     <t>TX20C_I005K01N38</t>
   </si>
   <si>
-    <t>0.656590</t>
-  </si>
-  <si>
     <t>TX20C_I036K01N38</t>
   </si>
   <si>
-    <t>0.786590</t>
-  </si>
-  <si>
     <t>TX20C_I010K01N38</t>
   </si>
   <si>
-    <t>0.618770</t>
-  </si>
-  <si>
     <t>TX20C_I027K01N38</t>
   </si>
   <si>
-    <t>0.537803</t>
-  </si>
-  <si>
     <t>TX20C_I001K01N38</t>
   </si>
   <si>
-    <t>0.858581</t>
-  </si>
-  <si>
     <t>TX20C_I026K01N38</t>
   </si>
   <si>
-    <t>0.757043</t>
-  </si>
-  <si>
     <t>TX20C_I063K01N38</t>
   </si>
   <si>
-    <t>0.771942</t>
-  </si>
-  <si>
     <t>TX20C_I083K01N38</t>
   </si>
   <si>
-    <t>0.738596</t>
-  </si>
-  <si>
     <t>TX20C_I049K01N38</t>
   </si>
   <si>
-    <t>0.707961</t>
-  </si>
-  <si>
     <t>TX20C_I019K01N38</t>
   </si>
   <si>
-    <t>0.706130</t>
-  </si>
-  <si>
     <t>TX20C_I029K01N38</t>
   </si>
   <si>
-    <t>0.753614</t>
-  </si>
-  <si>
     <t>TX20C_I031K01N38</t>
   </si>
   <si>
-    <t>0.789394</t>
-  </si>
-  <si>
     <t>TX20C_I052K01N38</t>
   </si>
   <si>
-    <t>0.846221</t>
-  </si>
-  <si>
     <t>TX20C_I055K01N38</t>
   </si>
   <si>
-    <t>0.678085</t>
-  </si>
-  <si>
     <t>TX20C_I025K01N38</t>
   </si>
   <si>
-    <t>0.792287</t>
-  </si>
-  <si>
     <t>TX20C_I009K01N38</t>
   </si>
   <si>
-    <t>0.910700</t>
-  </si>
-  <si>
     <t>TX20C_I015K01N38</t>
   </si>
   <si>
-    <t>0.818516</t>
-  </si>
-  <si>
     <t>TX20C_I071K01N38</t>
   </si>
   <si>
-    <t>0.749886</t>
-  </si>
-  <si>
     <t>TX20C_I099K01N38</t>
   </si>
   <si>
-    <t>0.753947</t>
-  </si>
-  <si>
     <t>TX20C_I093K01N38</t>
   </si>
   <si>
-    <t>0.934438</t>
-  </si>
-  <si>
     <t>TX20C_I002K01N38</t>
   </si>
   <si>
-    <t>0.893161</t>
-  </si>
-  <si>
     <t>TX20C_I042K01N38</t>
   </si>
   <si>
-    <t>0.765556</t>
-  </si>
-  <si>
     <t>TX20C_I089K01N38</t>
   </si>
   <si>
-    <t>0.757959</t>
-  </si>
-  <si>
     <t>TX20C_I061K01N38</t>
   </si>
   <si>
-    <t>0.756767</t>
-  </si>
-  <si>
     <t>TX20C_I047K01N38</t>
   </si>
   <si>
-    <t>0.697093</t>
-  </si>
-  <si>
     <t>TX20C_I080K01N38</t>
   </si>
   <si>
-    <t>0.837004</t>
-  </si>
-  <si>
     <t>TX20C_I084K01N38</t>
   </si>
   <si>
-    <t>0.954645</t>
-  </si>
-  <si>
     <t>TX20C_I048K01N38</t>
   </si>
   <si>
-    <t>0.852829</t>
-  </si>
-  <si>
     <t>TX20C_I098K01N38</t>
   </si>
   <si>
-    <t>0.852277</t>
-  </si>
-  <si>
     <t>TX20C_I077K01N38</t>
   </si>
   <si>
-    <t>0.784914</t>
-  </si>
-  <si>
     <t>TX20C_I079K01N38</t>
   </si>
   <si>
-    <t>0.897154</t>
-  </si>
-  <si>
     <t>TX20C_I096K01N38</t>
   </si>
   <si>
-    <t>0.912889</t>
-  </si>
-  <si>
     <t>TX20C_I035K01N38</t>
   </si>
   <si>
-    <t>0.899247</t>
-  </si>
-  <si>
     <t>TX20C_I095K01N38</t>
   </si>
   <si>
-    <t>0.773506</t>
-  </si>
-  <si>
     <t>TX20C_I068K01N38</t>
   </si>
   <si>
-    <t>0.822712</t>
-  </si>
-  <si>
     <t>TX20C_I066K01N38</t>
   </si>
   <si>
-    <t>0.764728</t>
-  </si>
-  <si>
     <t>TX20C_I073K01N38</t>
   </si>
   <si>
-    <t>0.982927</t>
-  </si>
-  <si>
     <t>TX20C_I038K01N38</t>
   </si>
   <si>
-    <t>0.936731</t>
-  </si>
-  <si>
     <t>TX20C_I062K01N38</t>
   </si>
   <si>
-    <t>0.897329</t>
-  </si>
-  <si>
     <t>TX20C_I075K01N38</t>
   </si>
   <si>
-    <t>0.853489</t>
-  </si>
-  <si>
     <t>TX20C_I024K01N38</t>
   </si>
   <si>
-    <t>0.959480</t>
-  </si>
-  <si>
     <t>TX20C_I011K01N38</t>
   </si>
   <si>
-    <t>0.950075</t>
-  </si>
-  <si>
     <t>TX20C_I016K01N38</t>
   </si>
   <si>
-    <t>0.873623</t>
-  </si>
-  <si>
     <t>TX20C_I069K01N38</t>
   </si>
   <si>
-    <t>0.830023</t>
-  </si>
-  <si>
     <t>TX20C_I014K01N38</t>
   </si>
   <si>
-    <t>0.885738</t>
-  </si>
-  <si>
     <t>TX20C_I018K01N38</t>
   </si>
   <si>
-    <t>1.081159</t>
-  </si>
-  <si>
     <t>TX20C_I040K01N38</t>
   </si>
   <si>
-    <t>0.750794</t>
-  </si>
-  <si>
     <t>TX20C_I085K01N38</t>
   </si>
   <si>
-    <t>1.063045</t>
-  </si>
-  <si>
     <t>TX20C_I003K01N38</t>
   </si>
   <si>
-    <t>0.930215</t>
-  </si>
-  <si>
     <t>TX20C_I087K01N38</t>
   </si>
   <si>
-    <t>0.878990</t>
-  </si>
-  <si>
     <t>TX20C_I051K01N38</t>
   </si>
   <si>
-    <t>1.061226</t>
-  </si>
-  <si>
     <t>TX20C_I081K01N38</t>
   </si>
   <si>
-    <t>0.939232</t>
-  </si>
-  <si>
     <t>TX20C_I006K01N38</t>
   </si>
   <si>
-    <t>0.841481</t>
-  </si>
-  <si>
     <t>TX20C_I056K01N38</t>
-  </si>
-  <si>
-    <t>0.999118</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -761,14 +484,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -785,17 +505,12 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,11 +530,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,15 +842,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="22"/>
+    <col min="2" max="2" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="10">
+      <c r="B1" s="17"/>
+      <c r="C1" s="7">
         <v>100</v>
       </c>
       <c r="D1" t="s">
@@ -1143,188 +858,188 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <f>MIN(DATA!E$2:E$93)</f>
         <v>1.2019999999999999E-2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <f>MIN(DATA!F$2:F$93)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <f>MIN(DATA!G$2:G$93)</f>
         <v>0.64743200000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <f>MIN(DATA!H$2:H$93)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <f>MIN(DATA!I$2:I$93)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <f>MAX(DATA!E$2:E$93)</f>
         <v>7.4060000000000001E-2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <f>MAX(DATA!F$2:F$93)</f>
         <v>0.105198</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <f>MAX(DATA!G$2:G$93)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <f>MAX(DATA!H$2:H$93)</f>
         <v>1.165446</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <f>MAX(DATA!I$2:I$93)</f>
-        <v>0</v>
+        <v>1.081159</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <f>AVERAGE(DATA!E$2:E$93)</f>
         <v>3.9184021739130437E-2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <f>AVERAGE(DATA!F$2:F$93)</f>
         <v>3.7573456521739136E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <f>AVERAGE(DATA!G$2:G$93)</f>
         <v>0.7400044891304346</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <f>AVERAGE(DATA!H$2:H$93)</f>
         <v>0.93439033695652196</v>
       </c>
-      <c r="F6" s="8" t="e">
+      <c r="F6" s="5">
         <f>AVERAGE(DATA!I$2:I$93)</f>
-        <v>#DIV/0!</v>
+        <v>0.75025395652173932</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <f>MEDIAN(DATA!E$2:E$93)</f>
         <v>3.7975000000000002E-2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <f>MEDIAN(DATA!F$2:F$93)</f>
         <v>3.3450500000000001E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f>MEDIAN(DATA!G$2:G$93)</f>
         <v>0.74007699999999998</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <f>MEDIAN(DATA!H$2:H$93)</f>
         <v>0.94724000000000008</v>
       </c>
-      <c r="F7" s="8" t="e">
+      <c r="F7" s="5">
         <f>MEDIAN(DATA!I$2:I$93)</f>
-        <v>#NUM!</v>
+        <v>0.75750099999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="21">
         <f>STDEV(DATA!E$2:E$93)</f>
         <v>1.0781225955262376E-2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <f>STDEV(DATA!F$2:F$93)</f>
         <v>2.1302914688062741E-2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <f>STDEV(DATA!G$2:G$93)</f>
         <v>5.0055023296784483E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <f>STDEV(DATA!H$2:H$93)</f>
         <v>0.14012317825801096</v>
       </c>
-      <c r="F8" s="13" t="e">
+      <c r="F8" s="10">
         <f>STDEV(DATA!I$2:I$93)</f>
-        <v>#DIV/0!</v>
+        <v>0.16124985588032709</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="10"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="28"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="22"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="22"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14"/>
       <c r="G12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="28"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="22"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="28"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="22"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="28"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="22"/>
+      <c r="F15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1339,7 +1054,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,78 +1062,78 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+      <c r="A2">
         <v>55</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
         <v>9007336.3957729992</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="19">
         <v>3.3180000000000001E-2</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="19">
         <v>0</v>
       </c>
-      <c r="G2" s="32">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33">
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>18</v>
+      <c r="I2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1426,28 +1141,28 @@
       <c r="D3" s="23">
         <v>9033148.4608929995</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>4.4970000000000003E-2</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="19">
         <v>2.8660000000000001E-3</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="19">
         <v>0.79387099999999999</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>0.80801000000000001</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
+      <c r="I3" s="6">
+        <v>0.60223099999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>61</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1455,28 +1170,28 @@
       <c r="D4" s="23">
         <v>9042543.0760769993</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>3.9090000000000001E-3</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>0.77662799999999999</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>0.84831699999999999</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
+      <c r="I4" s="6">
+        <v>0.64746000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1484,28 +1199,28 @@
       <c r="D5" s="23">
         <v>9054734.1939950008</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>4.9619999999999997E-2</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <v>5.2620000000000002E-3</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>0.84188200000000002</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>0.67053099999999999</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
+      <c r="I5" s="6">
+        <v>0.41859299999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1513,28 +1228,28 @@
       <c r="D6" s="23">
         <v>9062349.6612480003</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>3.218E-2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>6.1079999999999997E-3</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <v>0.78918299999999997</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>0.83160100000000003</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
+      <c r="I6" s="6">
+        <v>0.59124600000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1542,28 +1257,28 @@
       <c r="D7" s="23">
         <v>9065693.7004940007</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>3.7789999999999997E-2</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>6.4790000000000004E-3</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <v>0.81281999999999999</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>0.76066500000000004</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
+      <c r="I7" s="6">
+        <v>0.50349100000000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>58</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1571,28 +1286,28 @@
       <c r="D8" s="23">
         <v>9092641.0066</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>9.4710000000000003E-3</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>0.754413</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>0.86889000000000005</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
+      <c r="I8" s="6">
+        <v>0.73891200000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>83</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1600,28 +1315,28 @@
       <c r="D9" s="23">
         <v>9106462.1535940003</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>3.4750000000000003E-2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>1.1004999999999999E-2</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>0.77529400000000004</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>0.82916199999999995</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
+      <c r="I9" s="6">
+        <v>0.67055399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1629,28 +1344,28 @@
       <c r="D10" s="23">
         <v>9112251.3530020006</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="19">
         <v>1.1648E-2</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <v>0.79333600000000004</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>0.80724899999999999</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
+      <c r="I10" s="6">
+        <v>0.58146900000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>59</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1658,28 +1373,28 @@
       <c r="D11" s="23">
         <v>9138493.3698750008</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>3.1719999999999998E-2</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>1.4560999999999999E-2</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>0.74735600000000002</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>0.88586699999999996</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
+      <c r="I11" s="6">
+        <v>0.77422800000000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1687,28 +1402,28 @@
       <c r="D12" s="23">
         <v>9143375.9740810003</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>3.4979999999999997E-2</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>1.5103E-2</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>0.77298199999999995</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>0.822681</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>38</v>
+      <c r="I12" s="6">
+        <v>0.65027900000000005</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1716,28 +1431,28 @@
       <c r="D13" s="23">
         <v>9151595.2375329994</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>2.937E-2</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <v>1.6015999999999999E-2</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>0.773231</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>0.86593799999999999</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>40</v>
+      <c r="I13" s="6">
+        <v>0.63000299999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1745,57 +1460,57 @@
       <c r="D14" s="23">
         <v>9152384.4605069999</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>1.6102999999999999E-2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>0.80708800000000003</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>0.77523500000000001</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>42</v>
+      <c r="I14" s="6">
+        <v>0.51873000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>98</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="5" t="b">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="25">
         <v>9155480.3638850003</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>1.2019999999999999E-2</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>1.6447E-2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>0.76711799999999997</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>0.89685499999999996</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>44</v>
+      <c r="I15" s="4">
+        <v>0.64722000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1803,28 +1518,28 @@
       <c r="D16" s="23">
         <v>9156338.4000070002</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>3.1289999999999998E-2</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="19">
         <v>1.6542000000000001E-2</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="19">
         <v>0.76194600000000001</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>0.85310699999999995</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>46</v>
+      <c r="I16" s="6">
+        <v>0.65149500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>93</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1832,28 +1547,28 @@
       <c r="D17" s="23">
         <v>9157398.2961400002</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>3.5430000000000003E-2</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="19">
         <v>1.6660000000000001E-2</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="19">
         <v>0.82889599999999997</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>0.75460400000000005</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>48</v>
+      <c r="I17" s="6">
+        <v>0.44876700000000003</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1861,28 +1576,28 @@
       <c r="D18" s="23">
         <v>9164090.7694589999</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>4.6170000000000003E-2</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="19">
         <v>1.7402999999999998E-2</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="19">
         <v>0.82373399999999997</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>0.72199400000000002</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>50</v>
+      <c r="I18" s="6">
+        <v>0.46149099999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1890,28 +1605,28 @@
       <c r="D19" s="23">
         <v>9165553.6559149995</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>3.9230000000000001E-2</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="19">
         <v>1.7565000000000001E-2</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="19">
         <v>0.77812400000000004</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <v>0.85951900000000003</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>52</v>
+      <c r="I19" s="6">
+        <v>0.63726499999999997</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1919,28 +1634,28 @@
       <c r="D20" s="23">
         <v>9171324.1476370003</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>4.2759999999999999E-2</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="19">
         <v>1.8206E-2</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="19">
         <v>0.806647</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <v>0.80149000000000004</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>54</v>
+      <c r="I20" s="6">
+        <v>0.53540699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>66</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
+      <c r="B21" t="s">
+        <v>36</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1948,28 +1663,28 @@
       <c r="D21" s="23">
         <v>9180717.6003179997</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>3.8030000000000001E-2</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="19">
         <v>1.9248999999999999E-2</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="19">
         <v>0.776536</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <v>0.82248200000000005</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>56</v>
+      <c r="I21" s="6">
+        <v>0.57893399999999995</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>91</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1977,28 +1692,28 @@
       <c r="D22" s="23">
         <v>9182662.70156</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <v>3.066E-2</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="19">
         <v>1.9465E-2</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="19">
         <v>0.73062000000000005</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>0.964055</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>58</v>
+      <c r="I22" s="6">
+        <v>0.78149800000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
+      <c r="B23" t="s">
+        <v>38</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -2006,28 +1721,28 @@
       <c r="D23" s="23">
         <v>9183588.9079780001</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>3.5950000000000003E-2</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="19">
         <v>1.9567999999999999E-2</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="19">
         <v>0.77320900000000004</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>0.89690499999999995</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>60</v>
+      <c r="I23" s="6">
+        <v>0.63027599999999995</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
+      <c r="B24" t="s">
+        <v>39</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2035,28 +1750,28 @@
       <c r="D24" s="23">
         <v>9195530.2497170009</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>4.7690000000000003E-2</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="19">
         <v>2.0892999999999998E-2</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="19">
         <v>0.75556699999999999</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>0.90431600000000001</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>62</v>
+      <c r="I24" s="6">
+        <v>0.68558300000000005</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
+      <c r="B25" t="s">
+        <v>40</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2064,28 +1779,28 @@
       <c r="D25" s="23">
         <v>9209052.3757130001</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>4.3990000000000001E-2</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="19">
         <v>2.2395000000000002E-2</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="19">
         <v>0.75359699999999996</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <v>0.88239000000000001</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>64</v>
+      <c r="I25" s="6">
+        <v>0.68784000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
+      <c r="B26" t="s">
+        <v>41</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2093,28 +1808,28 @@
       <c r="D26" s="23">
         <v>9209151.4886569995</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>5.5370000000000003E-2</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="19">
         <v>2.2405999999999999E-2</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="19">
         <v>0.75361</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <v>0.89483500000000005</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>66</v>
+      <c r="I26" s="6">
+        <v>0.70950899999999995</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
+      <c r="B27" t="s">
+        <v>42</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2122,28 +1837,28 @@
       <c r="D27" s="23">
         <v>9212267.103929</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="19">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="19">
         <v>2.2752000000000001E-2</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="19">
         <v>0.78049000000000002</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="6">
         <v>0.83312600000000003</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>68</v>
+      <c r="I27" s="6">
+        <v>0.59297900000000003</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>87</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
+      <c r="B28" t="s">
+        <v>43</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2151,28 +1866,28 @@
       <c r="D28" s="23">
         <v>9215302.5085339993</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>3.7060000000000003E-2</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="19">
         <v>2.3088999999999998E-2</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="19">
         <v>0.737734</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
         <v>0.97055999999999998</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>70</v>
+      <c r="I28" s="6">
+        <v>0.78803199999999995</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>71</v>
+      <c r="B29" t="s">
+        <v>44</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2180,28 +1895,28 @@
       <c r="D29" s="23">
         <v>9215840.9954899997</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <v>5.4829999999999997E-2</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="19">
         <v>2.3147999999999998E-2</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="19">
         <v>0.760714</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="6">
         <v>0.91999399999999998</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>72</v>
+      <c r="I29" s="6">
+        <v>0.68358300000000005</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>89</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
+      <c r="B30" t="s">
+        <v>45</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2209,28 +1924,28 @@
       <c r="D30" s="23">
         <v>9222826.3984099999</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="19">
         <v>2.947E-2</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="19">
         <v>2.3924000000000001E-2</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="19">
         <v>0.72813000000000005</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="6">
         <v>0.94474800000000003</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>74</v>
+      <c r="I30" s="6">
+        <v>0.77602499999999996</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>47</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>75</v>
+      <c r="B31" t="s">
+        <v>46</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2238,28 +1953,28 @@
       <c r="D31" s="23">
         <v>9233438.4782609995</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="19">
         <v>4.471E-2</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="19">
         <v>2.5101999999999999E-2</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="19">
         <v>0.715028</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="6">
         <v>0.98508099999999998</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>76</v>
+      <c r="I31" s="6">
+        <v>0.84592900000000004</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
+      <c r="B32" t="s">
+        <v>47</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2267,28 +1982,28 @@
       <c r="D32" s="23">
         <v>9235334.2369279992</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="19">
         <v>4.512E-2</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="19">
         <v>2.5312000000000001E-2</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="19">
         <v>0.74564399999999997</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <v>0.90020199999999995</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>78</v>
+      <c r="I32" s="6">
+        <v>0.74129500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>95</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>79</v>
+      <c r="B33" t="s">
+        <v>48</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2296,28 +2011,28 @@
       <c r="D33" s="23">
         <v>9238931.3496400006</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="19">
         <v>3.5959999999999999E-2</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="19">
         <v>2.5711999999999999E-2</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="19">
         <v>0.74552300000000005</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="6">
         <v>0.91379200000000005</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>80</v>
+      <c r="I33" s="6">
+        <v>0.71453999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>81</v>
+      <c r="B34" t="s">
+        <v>49</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2325,28 +2040,28 @@
       <c r="D34" s="23">
         <v>9245194.6233469993</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="19">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="19">
         <v>2.6407E-2</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="19">
         <v>0.78451800000000005</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <v>0.83441699999999996</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>82</v>
+      <c r="I34" s="6">
+        <v>0.59860500000000005</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>73</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>83</v>
+      <c r="B35" t="s">
+        <v>50</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2354,28 +2069,28 @@
       <c r="D35" s="23">
         <v>9245727.0413869992</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="19">
         <v>4.589E-2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="19">
         <v>2.6466E-2</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="19">
         <v>0.74036599999999997</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="6">
         <v>0.96921000000000002</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>84</v>
+      <c r="I35" s="6">
+        <v>0.76277600000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>44</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
+      <c r="B36" t="s">
+        <v>51</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2383,28 +2098,28 @@
       <c r="D36" s="23">
         <v>9251922.3996970002</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="19">
         <v>1.5339999999999999E-2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="19">
         <v>2.7154000000000001E-2</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="19">
         <v>0.77761000000000002</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="6">
         <v>0.86936199999999997</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>86</v>
+      <c r="I36" s="6">
+        <v>0.61451500000000003</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>92</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>87</v>
+      <c r="B37" t="s">
+        <v>52</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2412,28 +2127,28 @@
       <c r="D37" s="23">
         <v>9252724.1855660006</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="19">
         <v>1.2460000000000001E-2</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="19">
         <v>2.7243E-2</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="19">
         <v>0.74954200000000004</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="6">
         <v>0.92249499999999995</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>88</v>
+      <c r="I37" s="6">
+        <v>0.68268099999999998</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>45</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>89</v>
+      <c r="B38" t="s">
+        <v>53</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2441,28 +2156,28 @@
       <c r="D38" s="23">
         <v>9256798.0426819995</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="19">
         <v>5.5730000000000002E-2</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="19">
         <v>2.7695000000000001E-2</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="19">
         <v>0.77105599999999996</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="6">
         <v>0.88444900000000004</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>90</v>
+      <c r="I38" s="6">
+        <v>0.61446699999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>14</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>91</v>
+      <c r="B39" t="s">
+        <v>54</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2470,28 +2185,28 @@
       <c r="D39" s="23">
         <v>9260474.1505130008</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="19">
         <v>4.2430000000000002E-2</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="19">
         <v>2.8104000000000001E-2</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="19">
         <v>0.75131599999999998</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="6">
         <v>0.95365699999999998</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>92</v>
+      <c r="I39" s="6">
+        <v>0.72124600000000005</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>93</v>
+      <c r="B40" t="s">
+        <v>55</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2499,28 +2214,28 @@
       <c r="D40" s="23">
         <v>9268572.0805920009</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="19">
         <v>3.5869999999999999E-2</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="19">
         <v>2.9003000000000001E-2</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="19">
         <v>0.76318200000000003</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="6">
         <v>0.90381100000000003</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>94</v>
+      <c r="I40" s="6">
+        <v>0.65659000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>95</v>
+      <c r="B41" t="s">
+        <v>56</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2528,28 +2243,28 @@
       <c r="D41" s="23">
         <v>9270891.0955800004</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="19">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="19">
         <v>2.9260000000000001E-2</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="19">
         <v>0.73475100000000004</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="6">
         <v>0.97074099999999997</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>96</v>
+      <c r="I41" s="6">
+        <v>0.78659000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>11</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>97</v>
+      <c r="B42" t="s">
+        <v>57</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2557,28 +2272,28 @@
       <c r="D42" s="23">
         <v>9278036.3402430005</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="19">
         <v>1.9269999999999999E-2</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="19">
         <v>3.0053E-2</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="19">
         <v>0.77068099999999995</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="6">
         <v>0.83257999999999999</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>98</v>
+      <c r="I42" s="6">
+        <v>0.61877000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>28</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>99</v>
+      <c r="B43" t="s">
+        <v>58</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2586,28 +2301,28 @@
       <c r="D43" s="23">
         <v>9287016.7622410003</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="19">
         <v>3.814E-2</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="19">
         <v>3.1050000000000001E-2</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="19">
         <v>0.80032300000000001</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="6">
         <v>0.80076000000000003</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>100</v>
+      <c r="I43" s="6">
+        <v>0.53780300000000003</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>101</v>
+      <c r="B44" t="s">
+        <v>59</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2615,28 +2330,28 @@
       <c r="D44" s="23">
         <v>9287270.2662560008</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="19">
         <v>3.5409999999999997E-2</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="19">
         <v>3.1078000000000001E-2</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="19">
         <v>0.71363200000000004</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="6">
         <v>1.0165759999999999</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>102</v>
+      <c r="I44" s="6">
+        <v>0.85858100000000004</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>27</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
+      <c r="B45" t="s">
+        <v>60</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2644,28 +2359,28 @@
       <c r="D45" s="23">
         <v>9287433.1228940003</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="19">
         <v>5.5530000000000003E-2</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="19">
         <v>3.1097E-2</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="19">
         <v>0.73324100000000003</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="6">
         <v>0.935724</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>104</v>
+      <c r="I45" s="6">
+        <v>0.75704300000000002</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>64</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>105</v>
+      <c r="B46" t="s">
+        <v>61</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2673,28 +2388,28 @@
       <c r="D46" s="23">
         <v>9292940.9444670007</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="19">
         <v>3.5159999999999997E-2</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="19">
         <v>3.1708E-2</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="19">
         <v>0.73816300000000001</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <v>0.95698399999999995</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>106</v>
+      <c r="I46" s="6">
+        <v>0.77194200000000002</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>84</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>107</v>
+      <c r="B47" t="s">
+        <v>62</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -2702,28 +2417,28 @@
       <c r="D47" s="23">
         <v>9304624.7347979993</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="19">
         <v>5.5160000000000001E-2</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="19">
         <v>3.3005E-2</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="19">
         <v>0.74361299999999997</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="6">
         <v>0.965036</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>108</v>
+      <c r="I47" s="6">
+        <v>0.73859600000000003</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>109</v>
+      <c r="B48" t="s">
+        <v>63</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2731,28 +2446,28 @@
       <c r="D48" s="23">
         <v>9312646.2901109997</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="19">
         <v>3.551E-2</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="19">
         <v>3.3896000000000003E-2</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="19">
         <v>0.74959500000000001</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="6">
         <v>0.89693999999999996</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>110</v>
+      <c r="I48" s="6">
+        <v>0.70796099999999995</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>111</v>
+      <c r="B49" t="s">
+        <v>64</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2760,28 +2475,28 @@
       <c r="D49" s="23">
         <v>9312993.7448960003</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="19">
         <v>4.589E-2</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="19">
         <v>3.3933999999999999E-2</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="19">
         <v>0.75267700000000004</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="6">
         <v>0.93483300000000003</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>112</v>
+      <c r="I49" s="6">
+        <v>0.70613000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>30</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>113</v>
+      <c r="B50" t="s">
+        <v>65</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2789,28 +2504,28 @@
       <c r="D50" s="23">
         <v>9315750.6731589995</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="19">
         <v>3.721E-2</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="19">
         <v>3.424E-2</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="19">
         <v>0.74512800000000001</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="6">
         <v>0.95080699999999996</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>114</v>
+      <c r="I50" s="6">
+        <v>0.75361400000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>32</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>115</v>
+      <c r="B51" t="s">
+        <v>66</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2818,28 +2533,28 @@
       <c r="D51" s="23">
         <v>9330278.5914040003</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="19">
         <v>3.5090000000000003E-2</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="19">
         <v>3.5853000000000003E-2</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="19">
         <v>0.72592100000000004</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="6">
         <v>0.96531</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>116</v>
+      <c r="I51" s="6">
+        <v>0.78939400000000004</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>117</v>
+      <c r="B52" t="s">
+        <v>67</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2847,28 +2562,28 @@
       <c r="D52" s="23">
         <v>9344097.4760890007</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="19">
         <v>5.842E-2</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="19">
         <v>3.7386999999999997E-2</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="19">
         <v>0.71397900000000003</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="6">
         <v>0.94809200000000005</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>118</v>
+      <c r="I52" s="6">
+        <v>0.846221</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>56</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>119</v>
+      <c r="B53" t="s">
+        <v>68</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2876,28 +2591,28 @@
       <c r="D53" s="23">
         <v>9345919.0229039993</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="19">
         <v>4.3180000000000003E-2</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="19">
         <v>3.7589999999999998E-2</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="19">
         <v>0.76108100000000001</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="6">
         <v>0.91429700000000003</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>120</v>
+      <c r="I53" s="6">
+        <v>0.67808500000000005</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>121</v>
+      <c r="B54" t="s">
+        <v>69</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -2905,28 +2620,28 @@
       <c r="D54" s="23">
         <v>9351644.5271070004</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="19">
         <v>4.9140000000000003E-2</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="19">
         <v>3.8225000000000002E-2</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="19">
         <v>0.72782500000000006</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="6">
         <v>0.99978900000000004</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>122</v>
+      <c r="I54" s="6">
+        <v>0.79228699999999996</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>123</v>
+      <c r="B55" t="s">
+        <v>70</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -2934,28 +2649,28 @@
       <c r="D55" s="23">
         <v>9356054.4245219994</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="19">
         <v>3.8379999999999997E-2</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="19">
         <v>3.8714999999999999E-2</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="19">
         <v>0.69174500000000005</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="6">
         <v>1.0515330000000001</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>124</v>
+      <c r="I55" s="6">
+        <v>0.91069999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>16</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>125</v>
+      <c r="B56" t="s">
+        <v>71</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -2963,28 +2678,28 @@
       <c r="D56" s="23">
         <v>9377569.0355760008</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="19">
         <v>3.7920000000000002E-2</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="19">
         <v>4.1103000000000001E-2</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="19">
         <v>0.71599699999999999</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="6">
         <v>1.0116989999999999</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>126</v>
+      <c r="I56" s="6">
+        <v>0.81851600000000002</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>72</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>127</v>
+      <c r="B57" t="s">
+        <v>72</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -2992,28 +2707,28 @@
       <c r="D57" s="23">
         <v>9386703.1835719999</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="19">
         <v>3.1789999999999999E-2</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="19">
         <v>4.2118000000000003E-2</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="19">
         <v>0.75321300000000002</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="6">
         <v>0.90330600000000005</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>128</v>
+      <c r="I57" s="6">
+        <v>0.74988600000000005</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>100</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
+      <c r="B58" t="s">
+        <v>73</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -3021,28 +2736,28 @@
       <c r="D58" s="23">
         <v>9398881.8264659997</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="19">
         <v>3.8980000000000001E-2</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="19">
         <v>4.3470000000000002E-2</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="19">
         <v>0.72613099999999997</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="6">
         <v>0.92984999999999995</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>130</v>
+      <c r="I58" s="6">
+        <v>0.75394700000000003</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>94</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>131</v>
+      <c r="B59" t="s">
+        <v>74</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3050,28 +2765,28 @@
       <c r="D59" s="23">
         <v>9420481.9971709996</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="19">
         <v>4.9529999999999998E-2</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="19">
         <v>4.5867999999999999E-2</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="19">
         <v>0.67491400000000001</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="6">
         <v>1.0417460000000001</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>132</v>
+      <c r="I59" s="6">
+        <v>0.93443799999999999</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>133</v>
+      <c r="B60" t="s">
+        <v>75</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -3079,28 +2794,28 @@
       <c r="D60" s="23">
         <v>9424903.16976</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="19">
         <v>4.3229999999999998E-2</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="19">
         <v>4.6358999999999997E-2</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="19">
         <v>0.71012299999999995</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="6">
         <v>1.0191220000000001</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>134</v>
+      <c r="I60" s="6">
+        <v>0.89316099999999998</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>43</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>135</v>
+      <c r="B61" t="s">
+        <v>76</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -3108,28 +2823,28 @@
       <c r="D61" s="23">
         <v>9430193.1910410002</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="19">
         <v>4.6080000000000003E-2</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="19">
         <v>4.6946000000000002E-2</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="19">
         <v>0.72687900000000005</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="6">
         <v>0.921516</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>136</v>
+      <c r="I61" s="6">
+        <v>0.76555600000000001</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>90</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>137</v>
+      <c r="B62" t="s">
+        <v>77</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3137,28 +2852,28 @@
       <c r="D62" s="23">
         <v>9433067.0278190002</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="19">
         <v>2.5139999999999999E-2</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="19">
         <v>4.7265000000000001E-2</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="19">
         <v>0.74696799999999997</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="6">
         <v>0.93171800000000005</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>138</v>
+      <c r="I62" s="6">
+        <v>0.75795900000000005</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>139</v>
+      <c r="B63" t="s">
+        <v>78</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3166,28 +2881,28 @@
       <c r="D63" s="23">
         <v>9451984.1907839999</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="19">
         <v>4.8239999999999998E-2</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="19">
         <v>4.9364999999999999E-2</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="19">
         <v>0.74147200000000002</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="6">
         <v>0.94638800000000001</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>140</v>
+      <c r="I63" s="6">
+        <v>0.75676699999999997</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>48</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>141</v>
+      <c r="B64" t="s">
+        <v>79</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3195,28 +2910,28 @@
       <c r="D64" s="23">
         <v>9457603.0847350005</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="19">
         <v>4.0770000000000001E-2</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="19">
         <v>4.9988999999999999E-2</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="19">
         <v>0.74932100000000001</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="6">
         <v>0.94055200000000005</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>142</v>
+      <c r="I64" s="6">
+        <v>0.69709299999999996</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>81</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>143</v>
+      <c r="B65" t="s">
+        <v>80</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -3224,28 +2939,28 @@
       <c r="D65" s="23">
         <v>9458282.4108070005</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="19">
         <v>2.6169999999999999E-2</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="19">
         <v>5.0063999999999997E-2</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="19">
         <v>0.71708700000000003</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="6">
         <v>1.051755</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>144</v>
+      <c r="I65" s="6">
+        <v>0.83700399999999997</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>85</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>145</v>
+      <c r="B66" t="s">
+        <v>81</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -3253,28 +2968,28 @@
       <c r="D66" s="23">
         <v>9463264.520459</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="19">
         <v>3.2259999999999997E-2</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="19">
         <v>5.0617000000000002E-2</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="19">
         <v>0.68372999999999995</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="6">
         <v>1.0647979999999999</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>146</v>
+      <c r="I66" s="6">
+        <v>0.95464499999999997</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>49</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>147</v>
+      <c r="B67" t="s">
+        <v>82</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3282,28 +2997,28 @@
       <c r="D67" s="23">
         <v>9469742.9122550003</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="19">
         <v>5.4359999999999999E-2</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="19">
         <v>5.1337000000000001E-2</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="19">
         <v>0.70058699999999996</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="6">
         <v>1.0118020000000001</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>148</v>
+      <c r="I67" s="6">
+        <v>0.85282899999999995</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>99</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>149</v>
+      <c r="B68" t="s">
+        <v>83</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3311,28 +3026,28 @@
       <c r="D68" s="23">
         <v>9470059.2967750002</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="19">
         <v>6.0990000000000003E-2</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="19">
         <v>5.1372000000000001E-2</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="19">
         <v>0.71054499999999998</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="6">
         <v>1.0154319999999999</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>150</v>
+      <c r="I68" s="6">
+        <v>0.85227699999999995</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>78</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>151</v>
+      <c r="B69" t="s">
+        <v>84</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -3340,28 +3055,28 @@
       <c r="D69" s="23">
         <v>9476114.3462790009</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="19">
         <v>2.937E-2</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="19">
         <v>5.2044E-2</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="19">
         <v>0.725248</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="6">
         <v>0.98760800000000004</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>152</v>
+      <c r="I69" s="6">
+        <v>0.784914</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>80</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>153</v>
+      <c r="B70" t="s">
+        <v>85</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -3369,28 +3084,28 @@
       <c r="D70" s="23">
         <v>9490953.0763780009</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="19">
         <v>3.9640000000000002E-2</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="19">
         <v>5.3691000000000003E-2</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="19">
         <v>0.68886499999999995</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="6">
         <v>1.0497160000000001</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>154</v>
+      <c r="I70" s="6">
+        <v>0.89715400000000001</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>97</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>155</v>
+      <c r="B71" t="s">
+        <v>86</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3398,28 +3113,28 @@
       <c r="D71" s="23">
         <v>9491531.8156080004</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="19">
         <v>2.6939999999999999E-2</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="19">
         <v>5.3755999999999998E-2</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="19">
         <v>0.700407</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="6">
         <v>1.0393300000000001</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>156</v>
+      <c r="I71" s="6">
+        <v>0.91288899999999995</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>36</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>157</v>
+      <c r="B72" t="s">
+        <v>87</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -3427,28 +3142,28 @@
       <c r="D72" s="23">
         <v>9507644.3746719994</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="19">
         <v>3.2829999999999998E-2</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="19">
         <v>5.5544000000000003E-2</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="19">
         <v>0.68796000000000002</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="6">
         <v>1.053436</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>158</v>
+      <c r="I72" s="6">
+        <v>0.89924700000000002</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>96</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>159</v>
+      <c r="B73" t="s">
+        <v>88</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -3456,28 +3171,28 @@
       <c r="D73" s="23">
         <v>9509709.5320009999</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="19">
         <v>4.0649999999999999E-2</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="19">
         <v>5.5773999999999997E-2</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="19">
         <v>0.73858800000000002</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="6">
         <v>0.95500499999999999</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>160</v>
+      <c r="I73" s="6">
+        <v>0.77350600000000003</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>69</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>161</v>
+      <c r="B74" t="s">
+        <v>89</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -3485,28 +3200,28 @@
       <c r="D74" s="23">
         <v>9521712.4678179994</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="19">
         <v>2.9680000000000002E-2</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="19">
         <v>5.7105999999999997E-2</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="19">
         <v>0.72533400000000003</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="6">
         <v>0.99185599999999996</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>162</v>
+      <c r="I74" s="6">
+        <v>0.822712</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>67</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>163</v>
+      <c r="B75" t="s">
+        <v>90</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -3514,28 +3229,28 @@
       <c r="D75" s="23">
         <v>9529196.2385179996</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="19">
         <v>3.3959999999999997E-2</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="19">
         <v>5.7937000000000002E-2</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="19">
         <v>0.73255899999999996</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="6">
         <v>0.96704800000000002</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>164</v>
+      <c r="I75" s="6">
+        <v>0.76472799999999996</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>165</v>
+      <c r="B76" t="s">
+        <v>91</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -3543,28 +3258,28 @@
       <c r="D76" s="23">
         <v>9531537.4660449997</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="19">
         <v>4.0460000000000003E-2</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="19">
         <v>5.8196999999999999E-2</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="19">
         <v>0.66267299999999996</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="6">
         <v>1.0929720000000001</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>166</v>
+      <c r="I76" s="6">
+        <v>0.982927</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>39</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>167</v>
+      <c r="B77" t="s">
+        <v>92</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -3572,28 +3287,28 @@
       <c r="D77" s="23">
         <v>9531697.6371810008</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="19">
         <v>7.4060000000000001E-2</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="19">
         <v>5.8215000000000003E-2</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="19">
         <v>0.67310300000000001</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="6">
         <v>1.0652159999999999</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>168</v>
+      <c r="I77" s="6">
+        <v>0.93673099999999998</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>63</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>169</v>
+      <c r="B78" t="s">
+        <v>93</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -3601,28 +3316,28 @@
       <c r="D78" s="23">
         <v>9541712.0711150002</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="19">
         <v>4.6030000000000001E-2</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="19">
         <v>5.9326999999999998E-2</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="19">
         <v>0.67754300000000001</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="6">
         <v>1.016993</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>170</v>
+      <c r="I78" s="6">
+        <v>0.89732900000000004</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>171</v>
+      <c r="B79" t="s">
+        <v>94</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -3630,28 +3345,28 @@
       <c r="D79" s="23">
         <v>9551038.1636660006</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="19">
         <v>4.8239999999999998E-2</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="19">
         <v>6.0361999999999999E-2</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="19">
         <v>0.71001800000000004</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="6">
         <v>1.0442009999999999</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>172</v>
+      <c r="I79" s="6">
+        <v>0.85348900000000005</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>25</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>173</v>
+      <c r="B80" t="s">
+        <v>95</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -3659,28 +3374,28 @@
       <c r="D80" s="23">
         <v>9558539.1445799991</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="19">
         <v>3.4410000000000003E-2</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="19">
         <v>6.1194999999999999E-2</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="19">
         <v>0.68941200000000002</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="6">
         <v>1.092079</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>174</v>
+      <c r="I80" s="6">
+        <v>0.95948</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>12</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>175</v>
+      <c r="B81" t="s">
+        <v>96</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -3688,28 +3403,28 @@
       <c r="D81" s="23">
         <v>9562225.1775090005</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E81" s="19">
         <v>1.9640000000000001E-2</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="19">
         <v>6.1603999999999999E-2</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="19">
         <v>0.68583499999999997</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="6">
         <v>1.0814999999999999</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>176</v>
+      <c r="I81" s="6">
+        <v>0.950075</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>17</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>177</v>
+      <c r="B82" t="s">
+        <v>97</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -3717,28 +3432,28 @@
       <c r="D82" s="23">
         <v>9573497.2243520003</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E82" s="19">
         <v>4.2229999999999997E-2</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="19">
         <v>6.2855999999999995E-2</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="19">
         <v>0.70038100000000003</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="6">
         <v>1.031868</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>178</v>
+      <c r="I82" s="6">
+        <v>0.87362300000000004</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>70</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>179</v>
+      <c r="B83" t="s">
+        <v>98</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -3746,28 +3461,28 @@
       <c r="D83" s="23">
         <v>9585206.8320250008</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="19">
         <v>4.1680000000000002E-2</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="19">
         <v>6.4156000000000005E-2</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="19">
         <v>0.71619200000000005</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="6">
         <v>1.0088649999999999</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>180</v>
+      <c r="I83" s="6">
+        <v>0.83002299999999996</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>15</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>181</v>
+      <c r="B84" t="s">
+        <v>99</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -3775,28 +3490,28 @@
       <c r="D84" s="23">
         <v>9590167.4988940004</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="19">
         <v>3.1690000000000003E-2</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="19">
         <v>6.4706E-2</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="19">
         <v>0.68579500000000004</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="6">
         <v>1.038154</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>182</v>
+      <c r="I84" s="6">
+        <v>0.88573800000000003</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>19</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>183</v>
+      <c r="B85" t="s">
+        <v>100</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -3804,28 +3519,28 @@
       <c r="D85" s="23">
         <v>9605731.9561950006</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="19">
         <v>4.8329999999999998E-2</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="19">
         <v>6.6434000000000007E-2</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="19">
         <v>0.65585499999999997</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="6">
         <v>1.165446</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>184</v>
+      <c r="I85" s="6">
+        <v>1.081159</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>41</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>185</v>
+      <c r="B86" t="s">
+        <v>101</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -3833,28 +3548,28 @@
       <c r="D86" s="23">
         <v>9613230.5093879998</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="19">
         <v>3.764E-2</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="19">
         <v>6.7266999999999993E-2</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="19">
         <v>0.739788</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="6">
         <v>0.96458100000000002</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>186</v>
+      <c r="I86" s="6">
+        <v>0.75079399999999996</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>187</v>
+      <c r="B87" t="s">
+        <v>102</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -3862,28 +3577,28 @@
       <c r="D87" s="23">
         <v>9616875.7734670006</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="19">
         <v>3.4660000000000003E-2</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="19">
         <v>6.7670999999999995E-2</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="19">
         <v>0.65705000000000002</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="6">
         <v>1.149921</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>188</v>
+      <c r="I87" s="6">
+        <v>1.063045</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>189</v>
+      <c r="B88" t="s">
+        <v>103</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -3891,28 +3606,28 @@
       <c r="D88" s="23">
         <v>9635227.9936989993</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="19">
         <v>3.0450000000000001E-2</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="19">
         <v>6.9708999999999993E-2</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="19">
         <v>0.69565399999999999</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="6">
         <v>1.0867070000000001</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>190</v>
+      <c r="I88" s="6">
+        <v>0.93021500000000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>191</v>
+      <c r="B89" t="s">
+        <v>104</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -3920,28 +3635,28 @@
       <c r="D89" s="23">
         <v>9641529.2052779999</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="19">
         <v>6.9690000000000002E-2</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="19">
         <v>7.0407999999999998E-2</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="19">
         <v>0.69076300000000002</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="6">
         <v>1.0511600000000001</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>192</v>
+      <c r="I89" s="6">
+        <v>0.87899000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>52</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>193</v>
+      <c r="B90" t="s">
+        <v>105</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -3949,28 +3664,28 @@
       <c r="D90" s="23">
         <v>9693470.0076759998</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="19">
         <v>3.5279999999999999E-2</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="19">
         <v>7.6175000000000007E-2</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="19">
         <v>0.64743200000000001</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="6">
         <v>1.160622</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>194</v>
+      <c r="I90" s="6">
+        <v>1.061226</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>82</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>195</v>
+      <c r="B91" t="s">
+        <v>106</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -3978,28 +3693,28 @@
       <c r="D91" s="23">
         <v>9702307.9158720002</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E91" s="19">
         <v>3.4119999999999998E-2</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="19">
         <v>7.7156000000000002E-2</v>
       </c>
-      <c r="G91" s="22">
+      <c r="G91" s="19">
         <v>0.67347599999999996</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="6">
         <v>1.041911</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>196</v>
+      <c r="I91" s="6">
+        <v>0.93923199999999996</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>197</v>
+      <c r="B92" t="s">
+        <v>107</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -4007,28 +3722,28 @@
       <c r="D92" s="23">
         <v>9825787.2392219994</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="19">
         <v>3.5249999999999997E-2</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="19">
         <v>9.0865000000000001E-2</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="19">
         <v>0.69639899999999999</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="6">
         <v>0.95692999999999995</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>198</v>
+      <c r="I92" s="6">
+        <v>0.84148100000000003</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>57</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>199</v>
+      <c r="B93" t="s">
+        <v>108</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -4036,20 +3751,20 @@
       <c r="D93" s="23">
         <v>9954886.3334400002</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E93" s="19">
         <v>4.8529999999999997E-2</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="19">
         <v>0.105198</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="19">
         <v>0.66622000000000003</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="6">
         <v>1.1094980000000001</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>200</v>
+      <c r="I93" s="6">
+        <v>0.99911799999999995</v>
       </c>
     </row>
   </sheetData>

--- a/maps/TX/TX20C_candidates.xlsx
+++ b/maps/TX/TX20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48AC773-E781-A94C-969C-C39697C0B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD3DFC2-4749-C64A-B621-A205142C1FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -903,7 +903,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="A2:I2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/maps/TX/TX20C_candidates.xlsx
+++ b/maps/TX/TX20C_candidates.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD3DFC2-4749-C64A-B621-A205142C1FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C0E6E7-DABC-8543-9F12-958D01A718C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="ENERGIES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$40</definedName>
+    <definedName name="TX20C_energies" localSheetId="2">ENERGIES!$A$1:$B$40</definedName>
     <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +59,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" xr16:uid="{91DBE694-184C-174E-A57B-6307E25F8DFE}" name="TX20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/TX/TX20C_energies.csv" comma="1">
+      <textFields count="2">
+        <textField type="text"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/TX/TX20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -76,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -244,17 +254,27 @@
   </si>
   <si>
     <t>TX20C_I034K01N38</t>
+  </si>
+  <si>
+    <t>MAP'</t>
+  </si>
+  <si>
+    <t>ENERGY'</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +293,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,11 +390,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +418,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="3" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TX20C_energies" connectionId="2" xr16:uid="{75551AFD-579E-A448-99E8-4722C369F93F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,7 +827,7 @@
       </c>
       <c r="D6" s="5">
         <f>AVERAGE(DATA!G$2:G$40)</f>
-        <v>0.70914502564102588</v>
+        <v>0.70914502564102577</v>
       </c>
       <c r="E6" s="5">
         <f>AVERAGE(DATA!H$2:H$40)</f>
@@ -796,7 +835,7 @@
       </c>
       <c r="F6" s="5">
         <f>AVERAGE(DATA!I$2:I$40)</f>
-        <v>0.86678158974358988</v>
+        <v>0.86678158974358976</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -846,7 +885,7 @@
       </c>
       <c r="F8" s="10">
         <f>STDEV(DATA!I$2:I$40)</f>
-        <v>0.20379627186078081</v>
+        <v>0.2037962718607815</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,13 +936,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,9 +955,12 @@
     <col min="6" max="6" width="6.5" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,8 +988,17 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>58</v>
       </c>
@@ -975,8 +1026,14 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="31">
+        <v>7393863.2929999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>71</v>
       </c>
@@ -1004,8 +1061,14 @@
       <c r="I3" s="6">
         <v>0.58584800000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="31">
+        <v>7474743.3219999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>97</v>
       </c>
@@ -1033,66 +1096,84 @@
       <c r="I4" s="6">
         <v>0.64614000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="31">
+        <v>7476836.6380000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>9246030.8667600006</v>
+        <v>9429262.1784739997</v>
       </c>
       <c r="E5" s="19">
-        <v>1.2149999999999999E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F5" s="19">
-        <v>1.4959999999999999E-2</v>
+        <v>3.5074000000000001E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>0.80245900000000003</v>
+        <v>0.71624699999999997</v>
       </c>
       <c r="H5" s="6">
-        <v>0.79689699999999997</v>
+        <v>0.98329500000000003</v>
       </c>
       <c r="I5" s="6">
-        <v>0.54240600000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83701400000000004</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="31">
+        <v>7576803.2479999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>9308105.7327950001</v>
+        <v>9493397.4006559998</v>
       </c>
       <c r="E6" s="19">
-        <v>1.0070000000000001E-2</v>
+        <v>8.1200000000000005E-3</v>
       </c>
       <c r="F6" s="19">
-        <v>2.1774000000000002E-2</v>
+        <v>4.2113999999999999E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>0.73870499999999995</v>
+        <v>0.73035700000000003</v>
       </c>
       <c r="H6" s="6">
-        <v>0.959422</v>
+        <v>0.989375</v>
       </c>
       <c r="I6" s="6">
-        <v>0.71716999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82083200000000001</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="31">
+        <v>7615627.2039999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1120,327 +1201,399 @@
       <c r="I7" s="6">
         <v>0.656107</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="31">
+        <v>7627354.8389999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>42</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>9502396.5044759996</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1.2109999999999999E-2</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4.3102000000000001E-2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.681898</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.1140859999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.95690299999999995</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="31">
+        <v>7713640.2889999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>88</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>9591043.4581339993</v>
+      </c>
+      <c r="E9" s="19">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="F9" s="19">
+        <v>5.2832999999999998E-2</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.713117</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.0485640000000001</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.871529</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="31">
+        <v>7722489.8190000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23">
+        <v>9405647.4771260004</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7.8700000000000003E-3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>3.2481999999999997E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.751448</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.92759899999999995</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.75891200000000003</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="31">
+        <v>7726946.2439999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>90</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
         <v>9367093.5310229994</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E11" s="19">
         <v>9.1900000000000003E-3</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F11" s="19">
         <v>2.8249E-2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G11" s="19">
         <v>0.67673899999999998</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H11" s="6">
         <v>1.0991150000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I11" s="6">
         <v>0.96104400000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>23</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23">
-        <v>9405647.4771260004</v>
-      </c>
-      <c r="E9" s="19">
-        <v>7.8700000000000003E-3</v>
-      </c>
-      <c r="F9" s="19">
-        <v>3.2481999999999997E-2</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.751448</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.92759899999999995</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.75891200000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="K11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="31">
+        <v>7730769.8459999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>83</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23">
+        <v>9308105.7327950001</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1.0070000000000001E-2</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2.1774000000000002E-2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.73870499999999995</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.959422</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.71716999999999997</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="31">
+        <v>7733247.7079999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
+        <v>9246030.8667600006</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1.2149999999999999E-2</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1.4959999999999999E-2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.80245900000000003</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.79689699999999997</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.54240600000000005</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="31">
+        <v>7753861.074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23">
+        <v>9578881.5292419996</v>
+      </c>
+      <c r="E14" s="19">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5.1498000000000002E-2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.74482700000000002</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.93730100000000005</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.75444199999999995</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="31">
+        <v>7769445.682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
+        <v>9512650.6546640005</v>
+      </c>
+      <c r="E15" s="19">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4.4228000000000003E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.71821400000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.99991399999999997</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.84440300000000001</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="31">
+        <v>7785054.2369999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
-        <v>9412032.4769289996</v>
-      </c>
-      <c r="E10" s="19">
-        <v>7.8899999999999994E-3</v>
-      </c>
-      <c r="F10" s="19">
-        <v>3.3182000000000003E-2</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.68847899999999995</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1.069739</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.92569800000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>73</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>9429262.1784739997</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="F11" s="19">
-        <v>3.5074000000000001E-2</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0.71624699999999997</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.98329500000000003</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.83701400000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>93</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23">
-        <v>9483579.2646699995</v>
-      </c>
-      <c r="E12" s="19">
-        <v>7.6299999999999996E-3</v>
-      </c>
-      <c r="F12" s="19">
-        <v>4.1036000000000003E-2</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.75102199999999997</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.95600200000000002</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.74373599999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23">
-        <v>9493397.4006559998</v>
-      </c>
-      <c r="E13" s="19">
-        <v>8.1200000000000005E-3</v>
-      </c>
-      <c r="F13" s="19">
-        <v>4.2113999999999999E-2</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0.73035700000000003</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.989375</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.82083200000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>42</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23">
-        <v>9502396.5044759996</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1.2109999999999999E-2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>4.3102000000000001E-2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.681898</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1.1140859999999999</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.95690299999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
-        <v>39</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="31">
-        <v>9509509.6966219991</v>
-      </c>
-      <c r="E15" s="32">
-        <v>8.3300000000000006E-3</v>
-      </c>
-      <c r="F15" s="32">
-        <v>4.3882999999999998E-2</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0.71136299999999997</v>
-      </c>
-      <c r="H15" s="33">
-        <v>1.008699</v>
-      </c>
-      <c r="I15" s="33">
-        <v>0.82035599999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>34</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>9512650.6546640005</v>
+        <v>9644510.1473379992</v>
       </c>
       <c r="E16" s="19">
-        <v>9.5399999999999999E-3</v>
+        <v>1.336E-2</v>
       </c>
       <c r="F16" s="19">
-        <v>4.4228000000000003E-2</v>
+        <v>5.8701999999999997E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>0.71821400000000002</v>
+        <v>0.74342600000000003</v>
       </c>
       <c r="H16" s="6">
-        <v>0.99991399999999997</v>
+        <v>0.95709599999999995</v>
       </c>
       <c r="I16" s="6">
-        <v>0.84440300000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.76905400000000002</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="31">
+        <v>7788204.6150000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>9524248.6749450006</v>
+        <v>9630866.1859300006</v>
       </c>
       <c r="E17" s="19">
-        <v>1.055E-2</v>
+        <v>9.2899999999999996E-3</v>
       </c>
       <c r="F17" s="19">
-        <v>4.5501E-2</v>
+        <v>5.7203999999999998E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>0.66591699999999998</v>
+        <v>0.67739899999999997</v>
       </c>
       <c r="H17" s="6">
-        <v>1.1329499999999999</v>
+        <v>1.0789470000000001</v>
       </c>
       <c r="I17" s="6">
-        <v>1.0072179999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.97471300000000005</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="31">
+        <v>7799148.784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>9526267.4824160002</v>
+        <v>9706509.2209309991</v>
       </c>
       <c r="E18" s="19">
-        <v>1.695E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="F18" s="19">
-        <v>4.5721999999999999E-2</v>
+        <v>6.5507999999999997E-2</v>
       </c>
       <c r="G18" s="19">
-        <v>0.74222600000000005</v>
+        <v>0.63549</v>
       </c>
       <c r="H18" s="6">
-        <v>0.91702600000000001</v>
+        <v>1.160647</v>
       </c>
       <c r="I18" s="6">
-        <v>0.73845300000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.100204</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="31">
+        <v>7800560.6890000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>92</v>
       </c>
@@ -1468,614 +1621,1088 @@
       <c r="I19" s="6">
         <v>0.84961200000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="31">
+        <v>7815798.2390000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>93</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="23">
+        <v>9483579.2646699995</v>
+      </c>
+      <c r="E20" s="19">
+        <v>7.6299999999999996E-3</v>
+      </c>
+      <c r="F20" s="19">
+        <v>4.1036000000000003E-2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.75102199999999997</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.95600200000000002</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.74373599999999995</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="31">
+        <v>7818956.2029999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23">
+        <v>9526267.4824160002</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1.695E-2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>4.5721999999999999E-2</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.74222600000000005</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.91702600000000001</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.73845300000000003</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="31">
+        <v>7828652.5020000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23">
+        <v>9567996.697013</v>
+      </c>
+      <c r="E22" s="19">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="F22" s="19">
+        <v>5.0303E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.62464399999999998</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.18699</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.1322220000000001</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="31">
+        <v>7833522.8420000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="23">
+        <v>9412032.4769289996</v>
+      </c>
+      <c r="E23" s="19">
+        <v>7.8899999999999994E-3</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3.3182000000000003E-2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.68847899999999995</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1.069739</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.92569800000000002</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="31">
+        <v>7838987.0860000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>54</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="23">
+        <v>9524248.6749450006</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1.055E-2</v>
+      </c>
+      <c r="F24" s="19">
+        <v>4.5501E-2</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.66591699999999998</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1.1329499999999999</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1.0072179999999999</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="31">
+        <v>7846196.0870000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="23">
+        <v>9616479.8183060009</v>
+      </c>
+      <c r="E25" s="19">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="F25" s="19">
+        <v>5.5625000000000001E-2</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.675956</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.116655</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.97931199999999996</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="31">
+        <v>7848801.0449999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>66</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="23">
+        <v>9598174.6693050005</v>
+      </c>
+      <c r="E26" s="19">
+        <v>8.0400000000000003E-3</v>
+      </c>
+      <c r="F26" s="19">
+        <v>5.3615999999999997E-2</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.64255700000000004</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.179316</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1.043906</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="31">
+        <v>7849956.9579999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="23">
+        <v>9653614.4963290002</v>
+      </c>
+      <c r="E27" s="19">
+        <v>9.4900000000000002E-3</v>
+      </c>
+      <c r="F27" s="19">
+        <v>5.9700999999999997E-2</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.67718800000000001</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.1028640000000001</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.95776099999999997</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="31">
+        <v>7853103.9649999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23">
+        <v>9711660.7889670003</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1.1560000000000001E-2</v>
+      </c>
+      <c r="F28" s="19">
+        <v>6.6073000000000007E-2</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.65396200000000004</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.1491100000000001</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.0235479999999999</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="31">
+        <v>7871558.0410000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23">
+        <v>9680673.0249090008</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1.065E-2</v>
+      </c>
+      <c r="F29" s="19">
+        <v>6.2672000000000005E-2</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.69738500000000003</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1.0563480000000001</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.92302099999999998</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="31">
+        <v>7905926.7390000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>69</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23">
+        <v>9583585.2120249998</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1.35E-2</v>
+      </c>
+      <c r="F30" s="19">
+        <v>5.2013999999999998E-2</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.69363900000000001</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.086508</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.92837700000000001</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="31">
+        <v>7907839.2300000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>61</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>9748623.3832840007</v>
+      </c>
+      <c r="E31" s="19">
+        <v>1.0070000000000001E-2</v>
+      </c>
+      <c r="F31" s="19">
+        <v>7.0130999999999999E-2</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0.66721399999999997</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1.121496</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1.026376</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="31">
+        <v>7927568.9079999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="23">
+        <v>9786297.3938490003</v>
+      </c>
+      <c r="E32" s="19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F32" s="19">
+        <v>7.4265999999999999E-2</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0.64529899999999996</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.171365</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1.1220410000000001</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="31">
+        <v>7928451.1869999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="23">
+        <v>9717698.4051520005</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1.644E-2</v>
+      </c>
+      <c r="F33" s="19">
+        <v>6.6736000000000004E-2</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0.65504600000000002</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1.1550480000000001</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1.014518</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="31">
+        <v>7998477.9270000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23">
+        <v>9715898.3896450009</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1.119E-2</v>
+      </c>
+      <c r="F34" s="19">
+        <v>6.6539000000000001E-2</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0.70459400000000005</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.019603</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.87636000000000003</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="31">
+        <v>7999854.8090000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>49</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="23">
+        <v>9695865.0187919997</v>
+      </c>
+      <c r="E35" s="19">
+        <v>8.8900000000000003E-3</v>
+      </c>
+      <c r="F35" s="19">
+        <v>6.4338999999999993E-2</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.65893599999999997</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1.1285099999999999</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1.007566</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="31">
+        <v>8001010.5760000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="23">
+        <v>9690478.8650870007</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1.008E-2</v>
+      </c>
+      <c r="F36" s="19">
+        <v>6.3747999999999999E-2</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.65318699999999996</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1.1584129999999999</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1.0523260000000001</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="31">
+        <v>8032088.4749999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>56</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
         <v>9541561.3478050008</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E37" s="19">
         <v>1.383E-2</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F37" s="19">
         <v>4.7400999999999999E-2</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G37" s="19">
         <v>0.71365100000000004</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H37" s="6">
         <v>1.0150600000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I37" s="6">
         <v>0.88205</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="K37" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="31">
+        <v>8039535.7130000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="23">
+        <v>9697634.7184369992</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1.1339999999999999E-2</v>
+      </c>
+      <c r="F38" s="19">
+        <v>6.4533999999999994E-2</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0.66104099999999999</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1.142547</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1.0222150000000001</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="31">
+        <v>8102666.7659999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>53</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="23">
+        <v>9626649.2775630001</v>
+      </c>
+      <c r="E39" s="19">
+        <v>8.8299999999999993E-3</v>
+      </c>
+      <c r="F39" s="19">
+        <v>5.6741E-2</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0.68320899999999996</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1.0515950000000001</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.93108900000000006</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="31">
+        <v>8116722.9000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="23">
+        <v>9509509.6966219991</v>
+      </c>
+      <c r="E40" s="19">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="F40" s="19">
+        <v>4.3882999999999998E-2</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0.71136299999999997</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.008699</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.82035599999999997</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="31">
+        <v>8181139.1770000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L40">
+    <sortCondition ref="L2:L40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4D13F-5188-7043-B96D-8FF5D544E1D0}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="29">
+        <v>7828652.5016580001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="29">
+        <v>7615627.2035290003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="29">
+        <v>7905926.7389559997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29">
+        <v>7999854.8088849997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="29">
+        <v>7871558.0410989998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="29">
+        <v>7627354.8389410004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="29">
+        <v>7788204.6148229996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="29">
+        <v>7753861.0739669995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="29">
+        <v>7726946.2437199997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="29">
+        <v>7998477.9270559996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="29">
+        <v>7800560.6886210004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="29">
+        <v>7785054.2366300002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="29">
+        <v>8102666.7657939997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="29">
+        <v>7769445.6816670001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23">
-        <v>9567996.697013</v>
-      </c>
-      <c r="E21" s="19">
-        <v>8.8500000000000002E-3</v>
-      </c>
-      <c r="F21" s="19">
-        <v>5.0303E-2</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0.62464399999999998</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1.18699</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1.1322220000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B16" s="29">
+        <v>7833522.8420350002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="29">
+        <v>8181139.1766729997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29">
+        <v>7713640.289229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="29">
+        <v>7928451.1873939997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="29">
+        <v>7848801.0449670004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="29">
+        <v>8001010.5760380002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23">
-        <v>9578881.5292419996</v>
-      </c>
-      <c r="E22" s="19">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="F22" s="19">
-        <v>5.1498000000000002E-2</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0.74482700000000002</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.93730100000000005</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.75444199999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>69</v>
-      </c>
-      <c r="B23" s="27" t="s">
+      <c r="B22" s="29">
+        <v>7838987.0855550002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="29">
+        <v>8116722.9004039997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="29">
+        <v>7846196.0873640003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="29">
+        <v>7853103.9648529999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="29">
+        <v>8039535.713463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="29">
+        <v>7393863.2932160003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="29">
+        <v>7927568.908117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <v>7849956.9582270002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="23">
-        <v>9583585.2120249998</v>
-      </c>
-      <c r="E23" s="19">
-        <v>1.35E-2</v>
-      </c>
-      <c r="F23" s="19">
-        <v>5.2013999999999998E-2</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0.69363900000000001</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1.086508</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.92837700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>88</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="B30" s="29">
+        <v>7907839.2298769997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="29">
+        <v>7474743.3215530002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="29">
+        <v>7576803.24792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="29">
+        <v>7799148.78419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="29">
+        <v>8032088.4752000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="29">
+        <v>7733247.7084189998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="23">
-        <v>9591043.4581339993</v>
-      </c>
-      <c r="E24" s="19">
-        <v>9.3699999999999999E-3</v>
-      </c>
-      <c r="F24" s="19">
-        <v>5.2832999999999998E-2</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0.713117</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1.0485640000000001</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.871529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>66</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="23">
-        <v>9598174.6693050005</v>
-      </c>
-      <c r="E25" s="19">
-        <v>8.0400000000000003E-3</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5.3615999999999997E-2</v>
-      </c>
-      <c r="G25" s="19">
-        <v>0.64255700000000004</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1.179316</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1.043906</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>46</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="23">
-        <v>9616479.8183060009</v>
-      </c>
-      <c r="E26" s="19">
-        <v>9.3799999999999994E-3</v>
-      </c>
-      <c r="F26" s="19">
-        <v>5.5625000000000001E-2</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0.675956</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1.116655</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.97931199999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>53</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="23">
-        <v>9626649.2775630001</v>
-      </c>
-      <c r="E27" s="19">
-        <v>8.8299999999999993E-3</v>
-      </c>
-      <c r="F27" s="19">
-        <v>5.6741E-2</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0.68320899999999996</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1.0515950000000001</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.93108900000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>74</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="23">
-        <v>9630866.1859300006</v>
-      </c>
-      <c r="E28" s="19">
-        <v>9.2899999999999996E-3</v>
-      </c>
-      <c r="F28" s="19">
-        <v>5.7203999999999998E-2</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0.67739899999999997</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1.0789470000000001</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.97471300000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="23">
-        <v>9644510.1473379992</v>
-      </c>
-      <c r="E29" s="19">
-        <v>1.336E-2</v>
-      </c>
-      <c r="F29" s="19">
-        <v>5.8701999999999997E-2</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0.74342600000000003</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0.95709599999999995</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0.76905400000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>55</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="23">
-        <v>9653614.4963290002</v>
-      </c>
-      <c r="E30" s="19">
-        <v>9.4900000000000002E-3</v>
-      </c>
-      <c r="F30" s="19">
-        <v>5.9700999999999997E-2</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0.67718800000000001</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1.1028640000000001</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.95776099999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="23">
-        <v>9680673.0249090008</v>
-      </c>
-      <c r="E31" s="19">
-        <v>1.065E-2</v>
-      </c>
-      <c r="F31" s="19">
-        <v>6.2672000000000005E-2</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0.69738500000000003</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1.0563480000000001</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.92302099999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>75</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="23">
-        <v>9690478.8650870007</v>
-      </c>
-      <c r="E32" s="19">
-        <v>1.008E-2</v>
-      </c>
-      <c r="F32" s="19">
-        <v>6.3747999999999999E-2</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0.65318699999999996</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1.1584129999999999</v>
-      </c>
-      <c r="I32" s="6">
-        <v>1.0523260000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>49</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="23">
-        <v>9695865.0187919997</v>
-      </c>
-      <c r="E33" s="19">
-        <v>8.8900000000000003E-3</v>
-      </c>
-      <c r="F33" s="19">
-        <v>6.4338999999999993E-2</v>
-      </c>
-      <c r="G33" s="19">
-        <v>0.65893599999999997</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1.1285099999999999</v>
-      </c>
-      <c r="I33" s="6">
-        <v>1.007566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="B36" s="29">
+        <v>7722489.8186590001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="29">
+        <v>7730769.8460330004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="23">
-        <v>9697634.7184369992</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1.1339999999999999E-2</v>
-      </c>
-      <c r="F34" s="19">
-        <v>6.4533999999999994E-2</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0.66104099999999999</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1.142547</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1.0222150000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="23">
-        <v>9706509.2209309991</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="F35" s="19">
-        <v>6.5507999999999997E-2</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0.63549</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1.160647</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1.100204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="23">
-        <v>9711660.7889670003</v>
-      </c>
-      <c r="E36" s="19">
-        <v>1.1560000000000001E-2</v>
-      </c>
-      <c r="F36" s="19">
-        <v>6.6073000000000007E-2</v>
-      </c>
-      <c r="G36" s="19">
-        <v>0.65396200000000004</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1.1491100000000001</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1.0235479999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="23">
-        <v>9715898.3896450009</v>
-      </c>
-      <c r="E37" s="19">
-        <v>1.119E-2</v>
-      </c>
-      <c r="F37" s="19">
-        <v>6.6539000000000001E-2</v>
-      </c>
-      <c r="G37" s="19">
-        <v>0.70459400000000005</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1.019603</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0.87636000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="B38" s="29">
+        <v>7815798.2392950002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="23">
-        <v>9717698.4051520005</v>
-      </c>
-      <c r="E38" s="19">
-        <v>1.644E-2</v>
-      </c>
-      <c r="F38" s="19">
-        <v>6.6736000000000004E-2</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0.65504600000000002</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1.1550480000000001</v>
-      </c>
-      <c r="I38" s="6">
-        <v>1.014518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>61</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="23">
-        <v>9748623.3832840007</v>
-      </c>
-      <c r="E39" s="19">
-        <v>1.0070000000000001E-2</v>
-      </c>
-      <c r="F39" s="19">
-        <v>7.0130999999999999E-2</v>
-      </c>
-      <c r="G39" s="19">
-        <v>0.66721399999999997</v>
-      </c>
-      <c r="H39" s="6">
-        <v>1.121496</v>
-      </c>
-      <c r="I39" s="6">
-        <v>1.026376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>43</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="23">
-        <v>9786297.3938490003</v>
-      </c>
-      <c r="E40" s="19">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F40" s="19">
-        <v>7.4265999999999999E-2</v>
-      </c>
-      <c r="G40" s="19">
-        <v>0.64529899999999996</v>
-      </c>
-      <c r="H40" s="6">
-        <v>1.171365</v>
-      </c>
-      <c r="I40" s="6">
-        <v>1.1220410000000001</v>
+      <c r="B39" s="29">
+        <v>7818956.2034949996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="29">
+        <v>7476836.6377959996</v>
       </c>
     </row>
   </sheetData>
